--- a/questionsLot1and2withoutWeightsAdjuster.xlsx
+++ b/questionsLot1and2withoutWeightsAdjuster.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">seems a good solution to me... </t>
   </si>
   <si>
-    <t xml:space="preserve">id:(8) | Refid: 8 - How do I use the “this” keyword in Java?</t>
+    <t xml:space="preserve">id:(8) | Refid: 8 - How do I use the this keyword in Java?</t>
   </si>
   <si>
     <t xml:space="preserve">agree... more a explanation than a code solution.</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">id:(25) | Refid: 69 - The op= Operators</t>
   </si>
   <si>
-    <t xml:space="preserve">id:(26) | Refid: 70 - Using 'final' with method arguments</t>
+    <t xml:space="preserve">id:(26) | Refid: 70 - Using final with method arguments</t>
   </si>
   <si>
     <t xml:space="preserve">id:(27) | Refid: 71 - Throwing an Exception from a Method</t>
@@ -340,7 +340,7 @@
     <t xml:space="preserve">not a random number, but a character.</t>
   </si>
   <si>
-    <t xml:space="preserve">id:(51) | Refid: 51 - Java Program to print Floyd’s triangle</t>
+    <t xml:space="preserve">id:(51) | Refid: 51 - Java Program to print Floyd s triangle</t>
   </si>
   <si>
     <t xml:space="preserve">Partially agree. Anyway, not a floyd triangle</t>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:G990"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A498" activeCellId="0" sqref="A498"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A961" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A988" activeCellId="0" sqref="A988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -690,7 +690,7 @@
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4450064/ ")</f>
-        <v>https://stackoverflow.com/questions/4450064/ </v>
+        <v>https://stackoverflow.com/questions/4450064/</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -708,7 +708,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4450166/ ")</f>
-        <v>https://stackoverflow.com/questions/4450166/ </v>
+        <v>https://stackoverflow.com/questions/4450166/</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9073310/ ")</f>
-        <v>https://stackoverflow.com/questions/9073310/ </v>
+        <v>https://stackoverflow.com/questions/9073310/</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12968022/ ")</f>
-        <v>https://stackoverflow.com/questions/12968022/ </v>
+        <v>https://stackoverflow.com/questions/12968022/</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17479297/ ")</f>
-        <v>https://stackoverflow.com/questions/17479297/ </v>
+        <v>https://stackoverflow.com/questions/17479297/</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17534350/ ")</f>
-        <v>https://stackoverflow.com/questions/17534350/ </v>
+        <v>https://stackoverflow.com/questions/17534350/</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -798,7 +798,7 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18973920/ ")</f>
-        <v>https://stackoverflow.com/questions/18973920/ </v>
+        <v>https://stackoverflow.com/questions/18973920/</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19759564/ ")</f>
-        <v>https://stackoverflow.com/questions/19759564/ </v>
+        <v>https://stackoverflow.com/questions/19759564/</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5</v>
@@ -834,7 +834,7 @@
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20313302/ ")</f>
-        <v>https://stackoverflow.com/questions/20313302/ </v>
+        <v>https://stackoverflow.com/questions/20313302/</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
@@ -858,7 +858,7 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/39429499/ ")</f>
-        <v>https://stackoverflow.com/questions/39429499/ </v>
+        <v>https://stackoverflow.com/questions/39429499/</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -887,7 +887,7 @@
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/37632/ ")</f>
-        <v>https://stackoverflow.com/questions/37632/ </v>
+        <v>https://stackoverflow.com/questions/37632/</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -905,7 +905,7 @@
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/54912/ ")</f>
-        <v>https://stackoverflow.com/questions/54912/ </v>
+        <v>https://stackoverflow.com/questions/54912/</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/197993/ ")</f>
-        <v>https://stackoverflow.com/questions/197993/ </v>
+        <v>https://stackoverflow.com/questions/197993/</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -944,7 +944,7 @@
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/450874/ ")</f>
-        <v>https://stackoverflow.com/questions/450874/ </v>
+        <v>https://stackoverflow.com/questions/450874/</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2924453/ ")</f>
-        <v>https://stackoverflow.com/questions/2924453/ </v>
+        <v>https://stackoverflow.com/questions/2924453/</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -980,7 +980,7 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2934330/ ")</f>
-        <v>https://stackoverflow.com/questions/2934330/ </v>
+        <v>https://stackoverflow.com/questions/2934330/</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -998,7 +998,7 @@
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3866251/ ")</f>
-        <v>https://stackoverflow.com/questions/3866251/ </v>
+        <v>https://stackoverflow.com/questions/3866251/</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -1016,7 +1016,7 @@
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9572820/ ")</f>
-        <v>https://stackoverflow.com/questions/9572820/ </v>
+        <v>https://stackoverflow.com/questions/9572820/</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23079174/ ")</f>
-        <v>https://stackoverflow.com/questions/23079174/ </v>
+        <v>https://stackoverflow.com/questions/23079174/</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23184843/ ")</f>
-        <v>https://stackoverflow.com/questions/23184843/ </v>
+        <v>https://stackoverflow.com/questions/23184843/</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -1081,7 +1081,7 @@
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2297450/ ")</f>
-        <v>https://stackoverflow.com/questions/2297450/ </v>
+        <v>https://stackoverflow.com/questions/2297450/</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>5</v>
@@ -1105,7 +1105,7 @@
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2298477/ ")</f>
-        <v>https://stackoverflow.com/questions/2298477/ </v>
+        <v>https://stackoverflow.com/questions/2298477/</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5</v>
@@ -1129,7 +1129,7 @@
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2441523/ ")</f>
-        <v>https://stackoverflow.com/questions/2441523/ </v>
+        <v>https://stackoverflow.com/questions/2441523/</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -1147,7 +1147,7 @@
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3761521/ ")</f>
-        <v>https://stackoverflow.com/questions/3761521/ </v>
+        <v>https://stackoverflow.com/questions/3761521/</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>5</v>
@@ -1166,7 +1166,7 @@
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4097704/ ")</f>
-        <v>https://stackoverflow.com/questions/4097704/ </v>
+        <v>https://stackoverflow.com/questions/4097704/</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>5</v>
@@ -1185,7 +1185,7 @@
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5585800/ ")</f>
-        <v>https://stackoverflow.com/questions/5585800/ </v>
+        <v>https://stackoverflow.com/questions/5585800/</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -1203,7 +1203,7 @@
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5585876/ ")</f>
-        <v>https://stackoverflow.com/questions/5585876/ </v>
+        <v>https://stackoverflow.com/questions/5585876/</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
@@ -1221,7 +1221,7 @@
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8270824/ ")</f>
-        <v>https://stackoverflow.com/questions/8270824/ </v>
+        <v>https://stackoverflow.com/questions/8270824/</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9276710/ ")</f>
-        <v>https://stackoverflow.com/questions/9276710/ </v>
+        <v>https://stackoverflow.com/questions/9276710/</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>5</v>
@@ -1260,7 +1260,7 @@
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21081595/ ")</f>
-        <v>https://stackoverflow.com/questions/21081595/ </v>
+        <v>https://stackoverflow.com/questions/21081595/</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>4</v>
@@ -1292,7 +1292,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/285809/ ")</f>
-        <v>https://stackoverflow.com/questions/285809/ </v>
+        <v>https://stackoverflow.com/questions/285809/</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/454913/ ")</f>
-        <v>https://stackoverflow.com/questions/454913/ </v>
+        <v>https://stackoverflow.com/questions/454913/</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -1328,7 +1328,7 @@
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/454919/ ")</f>
-        <v>https://stackoverflow.com/questions/454919/ </v>
+        <v>https://stackoverflow.com/questions/454919/</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
@@ -1346,7 +1346,7 @@
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1053475/ ")</f>
-        <v>https://stackoverflow.com/questions/1053475/ </v>
+        <v>https://stackoverflow.com/questions/1053475/</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1053487/ ")</f>
-        <v>https://stackoverflow.com/questions/1053487/ </v>
+        <v>https://stackoverflow.com/questions/1053487/</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>4</v>
@@ -1385,7 +1385,7 @@
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1566026/ ")</f>
-        <v>https://stackoverflow.com/questions/1566026/ </v>
+        <v>https://stackoverflow.com/questions/1566026/</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4576372/ ")</f>
-        <v>https://stackoverflow.com/questions/4576372/ </v>
+        <v>https://stackoverflow.com/questions/4576372/</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1</v>
@@ -1421,7 +1421,7 @@
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6058070/ ")</f>
-        <v>https://stackoverflow.com/questions/6058070/ </v>
+        <v>https://stackoverflow.com/questions/6058070/</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6366543/ ")</f>
-        <v>https://stackoverflow.com/questions/6366543/ </v>
+        <v>https://stackoverflow.com/questions/6366543/</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1</v>
@@ -1457,7 +1457,7 @@
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7800008/ ")</f>
-        <v>https://stackoverflow.com/questions/7800008/ </v>
+        <v>https://stackoverflow.com/questions/7800008/</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2839517/ ")</f>
-        <v>https://stackoverflow.com/questions/2839517/ </v>
+        <v>https://stackoverflow.com/questions/2839517/</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
@@ -1504,7 +1504,7 @@
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3406599/ ")</f>
-        <v>https://stackoverflow.com/questions/3406599/ </v>
+        <v>https://stackoverflow.com/questions/3406599/</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3536455/ ")</f>
-        <v>https://stackoverflow.com/questions/3536455/ </v>
+        <v>https://stackoverflow.com/questions/3536455/</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1</v>
@@ -1540,7 +1540,7 @@
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5801808/ ")</f>
-        <v>https://stackoverflow.com/questions/5801808/ </v>
+        <v>https://stackoverflow.com/questions/5801808/</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>4</v>
@@ -1558,7 +1558,7 @@
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7229662/ ")</f>
-        <v>https://stackoverflow.com/questions/7229662/ </v>
+        <v>https://stackoverflow.com/questions/7229662/</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7759569/ ")</f>
-        <v>https://stackoverflow.com/questions/7759569/ </v>
+        <v>https://stackoverflow.com/questions/7759569/</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>5</v>
@@ -1594,7 +1594,7 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12416616/ ")</f>
-        <v>https://stackoverflow.com/questions/12416616/ </v>
+        <v>https://stackoverflow.com/questions/12416616/</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1</v>
@@ -1612,7 +1612,7 @@
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16995788/ ")</f>
-        <v>https://stackoverflow.com/questions/16995788/ </v>
+        <v>https://stackoverflow.com/questions/16995788/</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>4</v>
@@ -1633,7 +1633,7 @@
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21989406/ ")</f>
-        <v>https://stackoverflow.com/questions/21989406/ </v>
+        <v>https://stackoverflow.com/questions/21989406/</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>4</v>
@@ -1654,7 +1654,7 @@
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/39239780/ ")</f>
-        <v>https://stackoverflow.com/questions/39239780/ </v>
+        <v>https://stackoverflow.com/questions/39239780/</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>4</v>
@@ -1683,7 +1683,7 @@
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/42686/ ")</f>
-        <v>https://stackoverflow.com/questions/42686/ </v>
+        <v>https://stackoverflow.com/questions/42686/</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/55679/ ")</f>
-        <v>https://stackoverflow.com/questions/55679/ </v>
+        <v>https://stackoverflow.com/questions/55679/</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/64164/ ")</f>
-        <v>https://stackoverflow.com/questions/64164/ </v>
+        <v>https://stackoverflow.com/questions/64164/</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1</v>
@@ -1737,7 +1737,7 @@
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/238827/ ")</f>
-        <v>https://stackoverflow.com/questions/238827/ </v>
+        <v>https://stackoverflow.com/questions/238827/</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1</v>
@@ -1755,7 +1755,7 @@
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/541527/ ")</f>
-        <v>https://stackoverflow.com/questions/541527/ </v>
+        <v>https://stackoverflow.com/questions/541527/</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1859579/ ")</f>
-        <v>https://stackoverflow.com/questions/1859579/ </v>
+        <v>https://stackoverflow.com/questions/1859579/</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3147440/ ")</f>
-        <v>https://stackoverflow.com/questions/3147440/ </v>
+        <v>https://stackoverflow.com/questions/3147440/</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1</v>
@@ -1809,7 +1809,7 @@
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/36777486/ ")</f>
-        <v>https://stackoverflow.com/questions/36777486/ </v>
+        <v>https://stackoverflow.com/questions/36777486/</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/44225918/ ")</f>
-        <v>https://stackoverflow.com/questions/44225918/ </v>
+        <v>https://stackoverflow.com/questions/44225918/</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/44225926/ ")</f>
-        <v>https://stackoverflow.com/questions/44225926/ </v>
+        <v>https://stackoverflow.com/questions/44225926/</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>1</v>
@@ -1874,7 +1874,7 @@
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2077223/ ")</f>
-        <v>https://stackoverflow.com/questions/2077223/ </v>
+        <v>https://stackoverflow.com/questions/2077223/</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>5</v>
@@ -1892,7 +1892,7 @@
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2779565/ ")</f>
-        <v>https://stackoverflow.com/questions/2779565/ </v>
+        <v>https://stackoverflow.com/questions/2779565/</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>3</v>
@@ -1913,7 +1913,7 @@
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2779674/ ")</f>
-        <v>https://stackoverflow.com/questions/2779674/ </v>
+        <v>https://stackoverflow.com/questions/2779674/</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>3</v>
@@ -1934,7 +1934,7 @@
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3342668/ ")</f>
-        <v>https://stackoverflow.com/questions/3342668/ </v>
+        <v>https://stackoverflow.com/questions/3342668/</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>5</v>
@@ -1952,7 +1952,7 @@
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10962613/ ")</f>
-        <v>https://stackoverflow.com/questions/10962613/ </v>
+        <v>https://stackoverflow.com/questions/10962613/</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>1</v>
@@ -1970,7 +1970,7 @@
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14005562/ ")</f>
-        <v>https://stackoverflow.com/questions/14005562/ </v>
+        <v>https://stackoverflow.com/questions/14005562/</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>5</v>
@@ -1988,7 +1988,7 @@
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16057610/ ")</f>
-        <v>https://stackoverflow.com/questions/16057610/ </v>
+        <v>https://stackoverflow.com/questions/16057610/</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
@@ -2006,7 +2006,7 @@
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19425549/ ")</f>
-        <v>https://stackoverflow.com/questions/19425549/ </v>
+        <v>https://stackoverflow.com/questions/19425549/</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>1</v>
@@ -2024,7 +2024,7 @@
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/24104427/ ")</f>
-        <v>https://stackoverflow.com/questions/24104427/ </v>
+        <v>https://stackoverflow.com/questions/24104427/</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>5</v>
@@ -2045,7 +2045,7 @@
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/35641743/ ")</f>
-        <v>https://stackoverflow.com/questions/35641743/ </v>
+        <v>https://stackoverflow.com/questions/35641743/</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/413904/ ")</f>
-        <v>https://stackoverflow.com/questions/413904/ </v>
+        <v>https://stackoverflow.com/questions/413904/</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>1</v>
@@ -2092,7 +2092,7 @@
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1081664/ ")</f>
-        <v>https://stackoverflow.com/questions/1081664/ </v>
+        <v>https://stackoverflow.com/questions/1081664/</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>1</v>
@@ -2110,7 +2110,7 @@
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2042836/ ")</f>
-        <v>https://stackoverflow.com/questions/2042836/ </v>
+        <v>https://stackoverflow.com/questions/2042836/</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2429082/ ")</f>
-        <v>https://stackoverflow.com/questions/2429082/ </v>
+        <v>https://stackoverflow.com/questions/2429082/</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>4</v>
@@ -2149,7 +2149,7 @@
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2429096/ ")</f>
-        <v>https://stackoverflow.com/questions/2429096/ </v>
+        <v>https://stackoverflow.com/questions/2429096/</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>4</v>
@@ -2167,7 +2167,7 @@
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3728084/ ")</f>
-        <v>https://stackoverflow.com/questions/3728084/ </v>
+        <v>https://stackoverflow.com/questions/3728084/</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2</v>
@@ -2188,7 +2188,7 @@
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11993118/ ")</f>
-        <v>https://stackoverflow.com/questions/11993118/ </v>
+        <v>https://stackoverflow.com/questions/11993118/</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>1</v>
@@ -2206,7 +2206,7 @@
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23353921/ ")</f>
-        <v>https://stackoverflow.com/questions/23353921/ </v>
+        <v>https://stackoverflow.com/questions/23353921/</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>2</v>
@@ -2224,7 +2224,7 @@
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23353929/ ")</f>
-        <v>https://stackoverflow.com/questions/23353929/ </v>
+        <v>https://stackoverflow.com/questions/23353929/</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2</v>
@@ -2242,7 +2242,7 @@
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/46968220/ ")</f>
-        <v>https://stackoverflow.com/questions/46968220/ </v>
+        <v>https://stackoverflow.com/questions/46968220/</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>3</v>
@@ -2274,7 +2274,7 @@
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2248503/ ")</f>
-        <v>https://stackoverflow.com/questions/2248503/ </v>
+        <v>https://stackoverflow.com/questions/2248503/</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>2</v>
@@ -2292,7 +2292,7 @@
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2723538/ ")</f>
-        <v>https://stackoverflow.com/questions/2723538/ </v>
+        <v>https://stackoverflow.com/questions/2723538/</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>2</v>
@@ -2310,7 +2310,7 @@
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10435131/ ")</f>
-        <v>https://stackoverflow.com/questions/10435131/ </v>
+        <v>https://stackoverflow.com/questions/10435131/</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>4</v>
@@ -2328,7 +2328,7 @@
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10435139/ ")</f>
-        <v>https://stackoverflow.com/questions/10435139/ </v>
+        <v>https://stackoverflow.com/questions/10435139/</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>3</v>
@@ -2346,7 +2346,7 @@
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10839155/ ")</f>
-        <v>https://stackoverflow.com/questions/10839155/ </v>
+        <v>https://stackoverflow.com/questions/10839155/</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>5</v>
@@ -2364,7 +2364,7 @@
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14021833/ ")</f>
-        <v>https://stackoverflow.com/questions/14021833/ </v>
+        <v>https://stackoverflow.com/questions/14021833/</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>3</v>
@@ -2382,7 +2382,7 @@
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18778307/ ")</f>
-        <v>https://stackoverflow.com/questions/18778307/ </v>
+        <v>https://stackoverflow.com/questions/18778307/</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>2</v>
@@ -2400,7 +2400,7 @@
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19501650/ ")</f>
-        <v>https://stackoverflow.com/questions/19501650/ </v>
+        <v>https://stackoverflow.com/questions/19501650/</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>1</v>
@@ -2418,7 +2418,7 @@
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19998652/ ")</f>
-        <v>https://stackoverflow.com/questions/19998652/ </v>
+        <v>https://stackoverflow.com/questions/19998652/</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>1</v>
@@ -2436,7 +2436,7 @@
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21351277/ ")</f>
-        <v>https://stackoverflow.com/questions/21351277/ </v>
+        <v>https://stackoverflow.com/questions/21351277/</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>3</v>
@@ -2468,7 +2468,7 @@
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/535017/ ")</f>
-        <v>https://stackoverflow.com/questions/535017/ </v>
+        <v>https://stackoverflow.com/questions/535017/</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>1</v>
@@ -2486,7 +2486,7 @@
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3914546/ ")</f>
-        <v>https://stackoverflow.com/questions/3914546/ </v>
+        <v>https://stackoverflow.com/questions/3914546/</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>5</v>
@@ -2504,7 +2504,7 @@
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4216767/ ")</f>
-        <v>https://stackoverflow.com/questions/4216767/ </v>
+        <v>https://stackoverflow.com/questions/4216767/</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>4</v>
@@ -2522,7 +2522,7 @@
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4772461/ ")</f>
-        <v>https://stackoverflow.com/questions/4772461/ </v>
+        <v>https://stackoverflow.com/questions/4772461/</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>5</v>
@@ -2540,7 +2540,7 @@
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5050929/ ")</f>
-        <v>https://stackoverflow.com/questions/5050929/ </v>
+        <v>https://stackoverflow.com/questions/5050929/</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>2</v>
@@ -2558,7 +2558,7 @@
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6891209/ ")</f>
-        <v>https://stackoverflow.com/questions/6891209/ </v>
+        <v>https://stackoverflow.com/questions/6891209/</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>1</v>
@@ -2576,7 +2576,7 @@
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10612572/ ")</f>
-        <v>https://stackoverflow.com/questions/10612572/ </v>
+        <v>https://stackoverflow.com/questions/10612572/</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>1</v>
@@ -2594,7 +2594,7 @@
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21242111/ ")</f>
-        <v>https://stackoverflow.com/questions/21242111/ </v>
+        <v>https://stackoverflow.com/questions/21242111/</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>3</v>
@@ -2612,7 +2612,7 @@
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23068695/ ")</f>
-        <v>https://stackoverflow.com/questions/23068695/ </v>
+        <v>https://stackoverflow.com/questions/23068695/</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>1</v>
@@ -2630,7 +2630,7 @@
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/35187046/ ")</f>
-        <v>https://stackoverflow.com/questions/35187046/ </v>
+        <v>https://stackoverflow.com/questions/35187046/</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>2</v>
@@ -2659,7 +2659,7 @@
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/41454/ ")</f>
-        <v>https://stackoverflow.com/questions/41454/ </v>
+        <v>https://stackoverflow.com/questions/41454/</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>1</v>
@@ -2677,7 +2677,7 @@
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/513871/ ")</f>
-        <v>https://stackoverflow.com/questions/513871/ </v>
+        <v>https://stackoverflow.com/questions/513871/</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/515000/ ")</f>
-        <v>https://stackoverflow.com/questions/515000/ </v>
+        <v>https://stackoverflow.com/questions/515000/</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>1</v>
@@ -2713,7 +2713,7 @@
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1128728/ ")</f>
-        <v>https://stackoverflow.com/questions/1128728/ </v>
+        <v>https://stackoverflow.com/questions/1128728/</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>1</v>
@@ -2731,7 +2731,7 @@
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1128899/ ")</f>
-        <v>https://stackoverflow.com/questions/1128899/ </v>
+        <v>https://stackoverflow.com/questions/1128899/</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>1</v>
@@ -2749,7 +2749,7 @@
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20886624/ ")</f>
-        <v>https://stackoverflow.com/questions/20886624/ </v>
+        <v>https://stackoverflow.com/questions/20886624/</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23908758/ ")</f>
-        <v>https://stackoverflow.com/questions/23908758/ </v>
+        <v>https://stackoverflow.com/questions/23908758/</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>1</v>
@@ -2785,7 +2785,7 @@
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23981027/ ")</f>
-        <v>https://stackoverflow.com/questions/23981027/ </v>
+        <v>https://stackoverflow.com/questions/23981027/</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>1</v>
@@ -2803,7 +2803,7 @@
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28267554/ ")</f>
-        <v>https://stackoverflow.com/questions/28267554/ </v>
+        <v>https://stackoverflow.com/questions/28267554/</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>1</v>
@@ -2821,7 +2821,7 @@
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29187813/ ")</f>
-        <v>https://stackoverflow.com/questions/29187813/ </v>
+        <v>https://stackoverflow.com/questions/29187813/</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>1</v>
@@ -2850,7 +2850,7 @@
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7008233/ ")</f>
-        <v>https://stackoverflow.com/questions/7008233/ </v>
+        <v>https://stackoverflow.com/questions/7008233/</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>1</v>
@@ -2868,7 +2868,7 @@
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10791577/ ")</f>
-        <v>https://stackoverflow.com/questions/10791577/ </v>
+        <v>https://stackoverflow.com/questions/10791577/</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>5</v>
@@ -2886,7 +2886,7 @@
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10791597/ ")</f>
-        <v>https://stackoverflow.com/questions/10791597/ </v>
+        <v>https://stackoverflow.com/questions/10791597/</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>5</v>
@@ -2904,7 +2904,7 @@
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12002374/ ")</f>
-        <v>https://stackoverflow.com/questions/12002374/ </v>
+        <v>https://stackoverflow.com/questions/12002374/</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>5</v>
@@ -2922,7 +2922,7 @@
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/31021873/ ")</f>
-        <v>https://stackoverflow.com/questions/31021873/ </v>
+        <v>https://stackoverflow.com/questions/31021873/</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>5</v>
@@ -2940,7 +2940,7 @@
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/32135007/ ")</f>
-        <v>https://stackoverflow.com/questions/32135007/ </v>
+        <v>https://stackoverflow.com/questions/32135007/</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>5</v>
@@ -2958,7 +2958,7 @@
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/37235382/ ")</f>
-        <v>https://stackoverflow.com/questions/37235382/ </v>
+        <v>https://stackoverflow.com/questions/37235382/</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>5</v>
@@ -2976,7 +2976,7 @@
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/39786633/ ")</f>
-        <v>https://stackoverflow.com/questions/39786633/ </v>
+        <v>https://stackoverflow.com/questions/39786633/</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>1</v>
@@ -2994,7 +2994,7 @@
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/42348625/ ")</f>
-        <v>https://stackoverflow.com/questions/42348625/ </v>
+        <v>https://stackoverflow.com/questions/42348625/</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>5</v>
@@ -3012,7 +3012,7 @@
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/45508125/ ")</f>
-        <v>https://stackoverflow.com/questions/45508125/ </v>
+        <v>https://stackoverflow.com/questions/45508125/</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>5</v>
@@ -3041,7 +3041,7 @@
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5276968/ ")</f>
-        <v>https://stackoverflow.com/questions/5276968/ </v>
+        <v>https://stackoverflow.com/questions/5276968/</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>5</v>
@@ -3059,7 +3059,7 @@
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7342244/ ")</f>
-        <v>https://stackoverflow.com/questions/7342244/ </v>
+        <v>https://stackoverflow.com/questions/7342244/</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>1</v>
@@ -3077,7 +3077,7 @@
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7342247/ ")</f>
-        <v>https://stackoverflow.com/questions/7342247/ </v>
+        <v>https://stackoverflow.com/questions/7342247/</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>5</v>
@@ -3095,7 +3095,7 @@
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7342253/ ")</f>
-        <v>https://stackoverflow.com/questions/7342253/ </v>
+        <v>https://stackoverflow.com/questions/7342253/</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>5</v>
@@ -3113,7 +3113,7 @@
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7342273/ ")</f>
-        <v>https://stackoverflow.com/questions/7342273/ </v>
+        <v>https://stackoverflow.com/questions/7342273/</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>4</v>
@@ -3131,7 +3131,7 @@
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14905686/ ")</f>
-        <v>https://stackoverflow.com/questions/14905686/ </v>
+        <v>https://stackoverflow.com/questions/14905686/</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>1</v>
@@ -3149,7 +3149,7 @@
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14905831/ ")</f>
-        <v>https://stackoverflow.com/questions/14905831/ </v>
+        <v>https://stackoverflow.com/questions/14905831/</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>3</v>
@@ -3170,7 +3170,7 @@
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20705414/ ")</f>
-        <v>https://stackoverflow.com/questions/20705414/ </v>
+        <v>https://stackoverflow.com/questions/20705414/</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>5</v>
@@ -3191,7 +3191,7 @@
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/41408815/ ")</f>
-        <v>https://stackoverflow.com/questions/41408815/ </v>
+        <v>https://stackoverflow.com/questions/41408815/</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>3</v>
@@ -3209,7 +3209,7 @@
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/45514360/ ")</f>
-        <v>https://stackoverflow.com/questions/45514360/ </v>
+        <v>https://stackoverflow.com/questions/45514360/</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>1</v>
@@ -3238,7 +3238,7 @@
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9626398/ ")</f>
-        <v>https://stackoverflow.com/questions/9626398/ </v>
+        <v>https://stackoverflow.com/questions/9626398/</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>4</v>
@@ -3259,7 +3259,7 @@
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9704912/ ")</f>
-        <v>https://stackoverflow.com/questions/9704912/ </v>
+        <v>https://stackoverflow.com/questions/9704912/</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>3</v>
@@ -3280,7 +3280,7 @@
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10319312/ ")</f>
-        <v>https://stackoverflow.com/questions/10319312/ </v>
+        <v>https://stackoverflow.com/questions/10319312/</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>3</v>
@@ -3298,7 +3298,7 @@
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10319818/ ")</f>
-        <v>https://stackoverflow.com/questions/10319818/ </v>
+        <v>https://stackoverflow.com/questions/10319818/</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>4</v>
@@ -3316,7 +3316,7 @@
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25717237/ ")</f>
-        <v>https://stackoverflow.com/questions/25717237/ </v>
+        <v>https://stackoverflow.com/questions/25717237/</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>2</v>
@@ -3334,7 +3334,7 @@
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25717239/ ")</f>
-        <v>https://stackoverflow.com/questions/25717239/ </v>
+        <v>https://stackoverflow.com/questions/25717239/</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>2</v>
@@ -3352,7 +3352,7 @@
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/36732290/ ")</f>
-        <v>https://stackoverflow.com/questions/36732290/ </v>
+        <v>https://stackoverflow.com/questions/36732290/</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>5</v>
@@ -3373,7 +3373,7 @@
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/38665101/ ")</f>
-        <v>https://stackoverflow.com/questions/38665101/ </v>
+        <v>https://stackoverflow.com/questions/38665101/</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>4</v>
@@ -3394,7 +3394,7 @@
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/40710009/ ")</f>
-        <v>https://stackoverflow.com/questions/40710009/ </v>
+        <v>https://stackoverflow.com/questions/40710009/</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>1</v>
@@ -3412,7 +3412,7 @@
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/42419909/ ")</f>
-        <v>https://stackoverflow.com/questions/42419909/ </v>
+        <v>https://stackoverflow.com/questions/42419909/</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>1</v>
@@ -3441,7 +3441,7 @@
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1043247/ ")</f>
-        <v>https://stackoverflow.com/questions/1043247/ </v>
+        <v>https://stackoverflow.com/questions/1043247/</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>1</v>
@@ -3459,7 +3459,7 @@
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1072205/ ")</f>
-        <v>https://stackoverflow.com/questions/1072205/ </v>
+        <v>https://stackoverflow.com/questions/1072205/</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>2</v>
@@ -3477,7 +3477,7 @@
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9626398/ ")</f>
-        <v>https://stackoverflow.com/questions/9626398/ </v>
+        <v>https://stackoverflow.com/questions/9626398/</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>3</v>
@@ -3498,7 +3498,7 @@
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9704912/ ")</f>
-        <v>https://stackoverflow.com/questions/9704912/ </v>
+        <v>https://stackoverflow.com/questions/9704912/</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>2</v>
@@ -3519,7 +3519,7 @@
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14650393/ ")</f>
-        <v>https://stackoverflow.com/questions/14650393/ </v>
+        <v>https://stackoverflow.com/questions/14650393/</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>1</v>
@@ -3537,7 +3537,7 @@
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14650431/ ")</f>
-        <v>https://stackoverflow.com/questions/14650431/ </v>
+        <v>https://stackoverflow.com/questions/14650431/</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>1</v>
@@ -3555,7 +3555,7 @@
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14650570/ ")</f>
-        <v>https://stackoverflow.com/questions/14650570/ </v>
+        <v>https://stackoverflow.com/questions/14650570/</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>5</v>
@@ -3573,7 +3573,7 @@
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20798440/ ")</f>
-        <v>https://stackoverflow.com/questions/20798440/ </v>
+        <v>https://stackoverflow.com/questions/20798440/</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>5</v>
@@ -3591,7 +3591,7 @@
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/39889752/ ")</f>
-        <v>https://stackoverflow.com/questions/39889752/ </v>
+        <v>https://stackoverflow.com/questions/39889752/</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>3</v>
@@ -3609,7 +3609,7 @@
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/47965422/ ")</f>
-        <v>https://stackoverflow.com/questions/47965422/ </v>
+        <v>https://stackoverflow.com/questions/47965422/</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>5</v>
@@ -3641,7 +3641,7 @@
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1021330/ ")</f>
-        <v>https://stackoverflow.com/questions/1021330/ </v>
+        <v>https://stackoverflow.com/questions/1021330/</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>3</v>
@@ -3659,7 +3659,7 @@
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1021332/ ")</f>
-        <v>https://stackoverflow.com/questions/1021332/ </v>
+        <v>https://stackoverflow.com/questions/1021332/</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>4</v>
@@ -3677,7 +3677,7 @@
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1021373/ ")</f>
-        <v>https://stackoverflow.com/questions/1021373/ </v>
+        <v>https://stackoverflow.com/questions/1021373/</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>5</v>
@@ -3698,7 +3698,7 @@
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2932369/ ")</f>
-        <v>https://stackoverflow.com/questions/2932369/ </v>
+        <v>https://stackoverflow.com/questions/2932369/</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>5</v>
@@ -3716,7 +3716,7 @@
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11596723/ ")</f>
-        <v>https://stackoverflow.com/questions/11596723/ </v>
+        <v>https://stackoverflow.com/questions/11596723/</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>5</v>
@@ -3734,7 +3734,7 @@
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28557011/ ")</f>
-        <v>https://stackoverflow.com/questions/28557011/ </v>
+        <v>https://stackoverflow.com/questions/28557011/</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>5</v>
@@ -3752,7 +3752,7 @@
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/37380349/ ")</f>
-        <v>https://stackoverflow.com/questions/37380349/ </v>
+        <v>https://stackoverflow.com/questions/37380349/</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>5</v>
@@ -3770,7 +3770,7 @@
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/37571983/ ")</f>
-        <v>https://stackoverflow.com/questions/37571983/ </v>
+        <v>https://stackoverflow.com/questions/37571983/</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>5</v>
@@ -3788,7 +3788,7 @@
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/42593611/ ")</f>
-        <v>https://stackoverflow.com/questions/42593611/ </v>
+        <v>https://stackoverflow.com/questions/42593611/</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>5</v>
@@ -3806,7 +3806,7 @@
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/47007480/ ")</f>
-        <v>https://stackoverflow.com/questions/47007480/ </v>
+        <v>https://stackoverflow.com/questions/47007480/</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>4</v>
@@ -3835,7 +3835,7 @@
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/833802/ ")</f>
-        <v>https://stackoverflow.com/questions/833802/ </v>
+        <v>https://stackoverflow.com/questions/833802/</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>3</v>
@@ -3856,7 +3856,7 @@
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2564544/ ")</f>
-        <v>https://stackoverflow.com/questions/2564544/ </v>
+        <v>https://stackoverflow.com/questions/2564544/</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>1</v>
@@ -3874,7 +3874,7 @@
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7443991/ ")</f>
-        <v>https://stackoverflow.com/questions/7443991/ </v>
+        <v>https://stackoverflow.com/questions/7443991/</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>5</v>
@@ -3892,7 +3892,7 @@
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7443992/ ")</f>
-        <v>https://stackoverflow.com/questions/7443992/ </v>
+        <v>https://stackoverflow.com/questions/7443992/</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>5</v>
@@ -3910,7 +3910,7 @@
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16458580/ ")</f>
-        <v>https://stackoverflow.com/questions/16458580/ </v>
+        <v>https://stackoverflow.com/questions/16458580/</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>5</v>
@@ -3928,7 +3928,7 @@
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16458601/ ")</f>
-        <v>https://stackoverflow.com/questions/16458601/ </v>
+        <v>https://stackoverflow.com/questions/16458601/</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>4</v>
@@ -3946,7 +3946,7 @@
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16458715/ ")</f>
-        <v>https://stackoverflow.com/questions/16458715/ </v>
+        <v>https://stackoverflow.com/questions/16458715/</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>4</v>
@@ -3967,7 +3967,7 @@
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/22276805/ ")</f>
-        <v>https://stackoverflow.com/questions/22276805/ </v>
+        <v>https://stackoverflow.com/questions/22276805/</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>4</v>
@@ -3985,7 +3985,7 @@
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/30550424/ ")</f>
-        <v>https://stackoverflow.com/questions/30550424/ </v>
+        <v>https://stackoverflow.com/questions/30550424/</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/41733121/ ")</f>
-        <v>https://stackoverflow.com/questions/41733121/ </v>
+        <v>https://stackoverflow.com/questions/41733121/</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>3</v>
@@ -4038,7 +4038,7 @@
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/338230/ ")</f>
-        <v>https://stackoverflow.com/questions/338230/ </v>
+        <v>https://stackoverflow.com/questions/338230/</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>1</v>
@@ -4056,7 +4056,7 @@
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1657868/ ")</f>
-        <v>https://stackoverflow.com/questions/1657868/ </v>
+        <v>https://stackoverflow.com/questions/1657868/</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>1</v>
@@ -4074,7 +4074,7 @@
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2074259/ ")</f>
-        <v>https://stackoverflow.com/questions/2074259/ </v>
+        <v>https://stackoverflow.com/questions/2074259/</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>1</v>
@@ -4092,7 +4092,7 @@
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3001879/ ")</f>
-        <v>https://stackoverflow.com/questions/3001879/ </v>
+        <v>https://stackoverflow.com/questions/3001879/</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>1</v>
@@ -4110,7 +4110,7 @@
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3896869/ ")</f>
-        <v>https://stackoverflow.com/questions/3896869/ </v>
+        <v>https://stackoverflow.com/questions/3896869/</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>1</v>
@@ -4128,7 +4128,7 @@
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4446370/ ")</f>
-        <v>https://stackoverflow.com/questions/4446370/ </v>
+        <v>https://stackoverflow.com/questions/4446370/</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>1</v>
@@ -4146,7 +4146,7 @@
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9455311/ ")</f>
-        <v>https://stackoverflow.com/questions/9455311/ </v>
+        <v>https://stackoverflow.com/questions/9455311/</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>1</v>
@@ -4164,7 +4164,7 @@
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29611791/ ")</f>
-        <v>https://stackoverflow.com/questions/29611791/ </v>
+        <v>https://stackoverflow.com/questions/29611791/</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>1</v>
@@ -4182,7 +4182,7 @@
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29611795/ ")</f>
-        <v>https://stackoverflow.com/questions/29611795/ </v>
+        <v>https://stackoverflow.com/questions/29611795/</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>1</v>
@@ -4200,7 +4200,7 @@
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/41413708/ ")</f>
-        <v>https://stackoverflow.com/questions/41413708/ </v>
+        <v>https://stackoverflow.com/questions/41413708/</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>2</v>
@@ -4229,7 +4229,7 @@
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/513839/ ")</f>
-        <v>https://stackoverflow.com/questions/513839/ </v>
+        <v>https://stackoverflow.com/questions/513839/</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>1</v>
@@ -4247,7 +4247,7 @@
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/513871/ ")</f>
-        <v>https://stackoverflow.com/questions/513871/ </v>
+        <v>https://stackoverflow.com/questions/513871/</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/515000/ ")</f>
-        <v>https://stackoverflow.com/questions/515000/ </v>
+        <v>https://stackoverflow.com/questions/515000/</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>1</v>
@@ -4283,7 +4283,7 @@
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2506109/ ")</f>
-        <v>https://stackoverflow.com/questions/2506109/ </v>
+        <v>https://stackoverflow.com/questions/2506109/</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>5</v>
@@ -4301,7 +4301,7 @@
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2506146/ ")</f>
-        <v>https://stackoverflow.com/questions/2506146/ </v>
+        <v>https://stackoverflow.com/questions/2506146/</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>4</v>
@@ -4319,7 +4319,7 @@
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2721557/ ")</f>
-        <v>https://stackoverflow.com/questions/2721557/ </v>
+        <v>https://stackoverflow.com/questions/2721557/</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>1</v>
@@ -4337,7 +4337,7 @@
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13102066/ ")</f>
-        <v>https://stackoverflow.com/questions/13102066/ </v>
+        <v>https://stackoverflow.com/questions/13102066/</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>2</v>
@@ -4358,7 +4358,7 @@
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20666721/ ")</f>
-        <v>https://stackoverflow.com/questions/20666721/ </v>
+        <v>https://stackoverflow.com/questions/20666721/</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>1</v>
@@ -4376,7 +4376,7 @@
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25716184/ ")</f>
-        <v>https://stackoverflow.com/questions/25716184/ </v>
+        <v>https://stackoverflow.com/questions/25716184/</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>1</v>
@@ -4394,7 +4394,7 @@
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/33518710/ ")</f>
-        <v>https://stackoverflow.com/questions/33518710/ </v>
+        <v>https://stackoverflow.com/questions/33518710/</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/338230/ ")</f>
-        <v>https://stackoverflow.com/questions/338230/ </v>
+        <v>https://stackoverflow.com/questions/338230/</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>1</v>
@@ -4441,7 +4441,7 @@
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/849823/ ")</f>
-        <v>https://stackoverflow.com/questions/849823/ </v>
+        <v>https://stackoverflow.com/questions/849823/</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>3</v>
@@ -4462,7 +4462,7 @@
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2429683/ ")</f>
-        <v>https://stackoverflow.com/questions/2429683/ </v>
+        <v>https://stackoverflow.com/questions/2429683/</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>2</v>
@@ -4480,7 +4480,7 @@
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2429685/ ")</f>
-        <v>https://stackoverflow.com/questions/2429685/ </v>
+        <v>https://stackoverflow.com/questions/2429685/</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>4</v>
@@ -4501,7 +4501,7 @@
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3748861/ ")</f>
-        <v>https://stackoverflow.com/questions/3748861/ </v>
+        <v>https://stackoverflow.com/questions/3748861/</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>3</v>
@@ -4519,7 +4519,7 @@
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6413170/ ")</f>
-        <v>https://stackoverflow.com/questions/6413170/ </v>
+        <v>https://stackoverflow.com/questions/6413170/</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>3</v>
@@ -4537,7 +4537,7 @@
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8426970/ ")</f>
-        <v>https://stackoverflow.com/questions/8426970/ </v>
+        <v>https://stackoverflow.com/questions/8426970/</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>1</v>
@@ -4555,7 +4555,7 @@
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8548813/ ")</f>
-        <v>https://stackoverflow.com/questions/8548813/ </v>
+        <v>https://stackoverflow.com/questions/8548813/</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>1</v>
@@ -4573,7 +4573,7 @@
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/30694412/ ")</f>
-        <v>https://stackoverflow.com/questions/30694412/ </v>
+        <v>https://stackoverflow.com/questions/30694412/</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/49018036/ ")</f>
-        <v>https://stackoverflow.com/questions/49018036/ </v>
+        <v>https://stackoverflow.com/questions/49018036/</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>3</v>
@@ -4620,7 +4620,7 @@
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2406441/ ")</f>
-        <v>https://stackoverflow.com/questions/2406441/ </v>
+        <v>https://stackoverflow.com/questions/2406441/</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>1</v>
@@ -4638,7 +4638,7 @@
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9321600/ ")</f>
-        <v>https://stackoverflow.com/questions/9321600/ </v>
+        <v>https://stackoverflow.com/questions/9321600/</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>1</v>
@@ -4659,7 +4659,7 @@
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10813256/ ")</f>
-        <v>https://stackoverflow.com/questions/10813256/ </v>
+        <v>https://stackoverflow.com/questions/10813256/</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>1</v>
@@ -4677,7 +4677,7 @@
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10813308/ ")</f>
-        <v>https://stackoverflow.com/questions/10813308/ </v>
+        <v>https://stackoverflow.com/questions/10813308/</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20110597/ ")</f>
-        <v>https://stackoverflow.com/questions/20110597/ </v>
+        <v>https://stackoverflow.com/questions/20110597/</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>1</v>
@@ -4716,7 +4716,7 @@
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20151387/ ")</f>
-        <v>https://stackoverflow.com/questions/20151387/ </v>
+        <v>https://stackoverflow.com/questions/20151387/</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>1</v>
@@ -4734,7 +4734,7 @@
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/22829917/ ")</f>
-        <v>https://stackoverflow.com/questions/22829917/ </v>
+        <v>https://stackoverflow.com/questions/22829917/</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>1</v>
@@ -4752,7 +4752,7 @@
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25958884/ ")</f>
-        <v>https://stackoverflow.com/questions/25958884/ </v>
+        <v>https://stackoverflow.com/questions/25958884/</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>4</v>
@@ -4773,7 +4773,7 @@
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/32597435/ ")</f>
-        <v>https://stackoverflow.com/questions/32597435/ </v>
+        <v>https://stackoverflow.com/questions/32597435/</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>1</v>
@@ -4791,7 +4791,7 @@
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/38622191/ ")</f>
-        <v>https://stackoverflow.com/questions/38622191/ </v>
+        <v>https://stackoverflow.com/questions/38622191/</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>1</v>
@@ -4820,7 +4820,7 @@
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2406441/ ")</f>
-        <v>https://stackoverflow.com/questions/2406441/ </v>
+        <v>https://stackoverflow.com/questions/2406441/</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>5</v>
@@ -4838,7 +4838,7 @@
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10033666/ ")</f>
-        <v>https://stackoverflow.com/questions/10033666/ </v>
+        <v>https://stackoverflow.com/questions/10033666/</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>1</v>
@@ -4856,7 +4856,7 @@
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13147747/ ")</f>
-        <v>https://stackoverflow.com/questions/13147747/ </v>
+        <v>https://stackoverflow.com/questions/13147747/</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>5</v>
@@ -4874,7 +4874,7 @@
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14698238/ ")</f>
-        <v>https://stackoverflow.com/questions/14698238/ </v>
+        <v>https://stackoverflow.com/questions/14698238/</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>4</v>
@@ -4892,7 +4892,7 @@
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25880504/ ")</f>
-        <v>https://stackoverflow.com/questions/25880504/ </v>
+        <v>https://stackoverflow.com/questions/25880504/</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>4</v>
@@ -4910,7 +4910,7 @@
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25958884/ ")</f>
-        <v>https://stackoverflow.com/questions/25958884/ </v>
+        <v>https://stackoverflow.com/questions/25958884/</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>4</v>
@@ -4928,7 +4928,7 @@
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/26311732/ ")</f>
-        <v>https://stackoverflow.com/questions/26311732/ </v>
+        <v>https://stackoverflow.com/questions/26311732/</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>4</v>
@@ -4946,7 +4946,7 @@
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/27189112/ ")</f>
-        <v>https://stackoverflow.com/questions/27189112/ </v>
+        <v>https://stackoverflow.com/questions/27189112/</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>3</v>
@@ -4964,7 +4964,7 @@
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28200703/ ")</f>
-        <v>https://stackoverflow.com/questions/28200703/ </v>
+        <v>https://stackoverflow.com/questions/28200703/</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>5</v>
@@ -4982,7 +4982,7 @@
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/38622191/ ")</f>
-        <v>https://stackoverflow.com/questions/38622191/ </v>
+        <v>https://stackoverflow.com/questions/38622191/</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>3</v>
@@ -5011,7 +5011,7 @@
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2910128/ ")</f>
-        <v>https://stackoverflow.com/questions/2910128/ </v>
+        <v>https://stackoverflow.com/questions/2910128/</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>1</v>
@@ -5029,7 +5029,7 @@
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5891387/ ")</f>
-        <v>https://stackoverflow.com/questions/5891387/ </v>
+        <v>https://stackoverflow.com/questions/5891387/</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>1</v>
@@ -5047,7 +5047,7 @@
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8152012/ ")</f>
-        <v>https://stackoverflow.com/questions/8152012/ </v>
+        <v>https://stackoverflow.com/questions/8152012/</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>1</v>
@@ -5065,7 +5065,7 @@
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9689868/ ")</f>
-        <v>https://stackoverflow.com/questions/9689868/ </v>
+        <v>https://stackoverflow.com/questions/9689868/</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>1</v>
@@ -5083,7 +5083,7 @@
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9689877/ ")</f>
-        <v>https://stackoverflow.com/questions/9689877/ </v>
+        <v>https://stackoverflow.com/questions/9689877/</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11880107/ ")</f>
-        <v>https://stackoverflow.com/questions/11880107/ </v>
+        <v>https://stackoverflow.com/questions/11880107/</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>1</v>
@@ -5119,7 +5119,7 @@
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18397266/ ")</f>
-        <v>https://stackoverflow.com/questions/18397266/ </v>
+        <v>https://stackoverflow.com/questions/18397266/</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1</v>
@@ -5137,7 +5137,7 @@
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21240429/ ")</f>
-        <v>https://stackoverflow.com/questions/21240429/ </v>
+        <v>https://stackoverflow.com/questions/21240429/</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>1</v>
@@ -5155,7 +5155,7 @@
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21641165/ ")</f>
-        <v>https://stackoverflow.com/questions/21641165/ </v>
+        <v>https://stackoverflow.com/questions/21641165/</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>1</v>
@@ -5173,7 +5173,7 @@
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25072616/ ")</f>
-        <v>https://stackoverflow.com/questions/25072616/ </v>
+        <v>https://stackoverflow.com/questions/25072616/</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>1</v>
@@ -5202,7 +5202,7 @@
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/326440/ ")</f>
-        <v>https://stackoverflow.com/questions/326440/ </v>
+        <v>https://stackoverflow.com/questions/326440/</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1</v>
@@ -5220,7 +5220,7 @@
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1583968/ ")</f>
-        <v>https://stackoverflow.com/questions/1583968/ </v>
+        <v>https://stackoverflow.com/questions/1583968/</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>3</v>
@@ -5241,7 +5241,7 @@
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1583971/ ")</f>
-        <v>https://stackoverflow.com/questions/1583971/ </v>
+        <v>https://stackoverflow.com/questions/1583971/</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>3</v>
@@ -5262,7 +5262,7 @@
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3243744/ ")</f>
-        <v>https://stackoverflow.com/questions/3243744/ </v>
+        <v>https://stackoverflow.com/questions/3243744/</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>2</v>
@@ -5280,7 +5280,7 @@
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3243779/ ")</f>
-        <v>https://stackoverflow.com/questions/3243779/ </v>
+        <v>https://stackoverflow.com/questions/3243779/</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>2</v>
@@ -5298,7 +5298,7 @@
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5034592/ ")</f>
-        <v>https://stackoverflow.com/questions/5034592/ </v>
+        <v>https://stackoverflow.com/questions/5034592/</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>1</v>
@@ -5316,7 +5316,7 @@
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6202785/ ")</f>
-        <v>https://stackoverflow.com/questions/6202785/ </v>
+        <v>https://stackoverflow.com/questions/6202785/</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>2</v>
@@ -5334,7 +5334,7 @@
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8499776/ ")</f>
-        <v>https://stackoverflow.com/questions/8499776/ </v>
+        <v>https://stackoverflow.com/questions/8499776/</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>3</v>
@@ -5352,7 +5352,7 @@
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/26791724/ ")</f>
-        <v>https://stackoverflow.com/questions/26791724/ </v>
+        <v>https://stackoverflow.com/questions/26791724/</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>1</v>
@@ -5370,7 +5370,7 @@
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/35252333/ ")</f>
-        <v>https://stackoverflow.com/questions/35252333/ </v>
+        <v>https://stackoverflow.com/questions/35252333/</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>2</v>
@@ -5399,7 +5399,7 @@
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/224314/ ")</f>
-        <v>https://stackoverflow.com/questions/224314/ </v>
+        <v>https://stackoverflow.com/questions/224314/</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>2</v>
@@ -5417,7 +5417,7 @@
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/224380/ ")</f>
-        <v>https://stackoverflow.com/questions/224380/ </v>
+        <v>https://stackoverflow.com/questions/224380/</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>5</v>
@@ -5438,7 +5438,7 @@
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2486574/ ")</f>
-        <v>https://stackoverflow.com/questions/2486574/ </v>
+        <v>https://stackoverflow.com/questions/2486574/</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>5</v>
@@ -5456,7 +5456,7 @@
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2674750/ ")</f>
-        <v>https://stackoverflow.com/questions/2674750/ </v>
+        <v>https://stackoverflow.com/questions/2674750/</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>2</v>
@@ -5474,7 +5474,7 @@
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3152221/ ")</f>
-        <v>https://stackoverflow.com/questions/3152221/ </v>
+        <v>https://stackoverflow.com/questions/3152221/</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>4</v>
@@ -5492,7 +5492,7 @@
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8710685/ ")</f>
-        <v>https://stackoverflow.com/questions/8710685/ </v>
+        <v>https://stackoverflow.com/questions/8710685/</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>5</v>
@@ -5510,7 +5510,7 @@
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8710746/ ")</f>
-        <v>https://stackoverflow.com/questions/8710746/ </v>
+        <v>https://stackoverflow.com/questions/8710746/</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>5</v>
@@ -5528,7 +5528,7 @@
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8710747/ ")</f>
-        <v>https://stackoverflow.com/questions/8710747/ </v>
+        <v>https://stackoverflow.com/questions/8710747/</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>5</v>
@@ -5546,7 +5546,7 @@
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20001866/ ")</f>
-        <v>https://stackoverflow.com/questions/20001866/ </v>
+        <v>https://stackoverflow.com/questions/20001866/</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>1</v>
@@ -5564,7 +5564,7 @@
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/43523441/ ")</f>
-        <v>https://stackoverflow.com/questions/43523441/ </v>
+        <v>https://stackoverflow.com/questions/43523441/</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>2</v>
@@ -5593,7 +5593,7 @@
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/40507/ ")</f>
-        <v>https://stackoverflow.com/questions/40507/ </v>
+        <v>https://stackoverflow.com/questions/40507/</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>1</v>
@@ -5611,7 +5611,7 @@
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/73021/ ")</f>
-        <v>https://stackoverflow.com/questions/73021/ </v>
+        <v>https://stackoverflow.com/questions/73021/</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>1</v>
@@ -5629,7 +5629,7 @@
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1068786/ ")</f>
-        <v>https://stackoverflow.com/questions/1068786/ </v>
+        <v>https://stackoverflow.com/questions/1068786/</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7034719/ ")</f>
-        <v>https://stackoverflow.com/questions/7034719/ </v>
+        <v>https://stackoverflow.com/questions/7034719/</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>1</v>
@@ -5665,7 +5665,7 @@
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8618742/ ")</f>
-        <v>https://stackoverflow.com/questions/8618742/ </v>
+        <v>https://stackoverflow.com/questions/8618742/</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>1</v>
@@ -5683,7 +5683,7 @@
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10380512/ ")</f>
-        <v>https://stackoverflow.com/questions/10380512/ </v>
+        <v>https://stackoverflow.com/questions/10380512/</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>5</v>
@@ -5701,7 +5701,7 @@
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11736749/ ")</f>
-        <v>https://stackoverflow.com/questions/11736749/ </v>
+        <v>https://stackoverflow.com/questions/11736749/</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>1</v>
@@ -5719,7 +5719,7 @@
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12429953/ ")</f>
-        <v>https://stackoverflow.com/questions/12429953/ </v>
+        <v>https://stackoverflow.com/questions/12429953/</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>1</v>
@@ -5737,7 +5737,7 @@
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18150752/ ")</f>
-        <v>https://stackoverflow.com/questions/18150752/ </v>
+        <v>https://stackoverflow.com/questions/18150752/</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>1</v>
@@ -5755,7 +5755,7 @@
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18506761/ ")</f>
-        <v>https://stackoverflow.com/questions/18506761/ </v>
+        <v>https://stackoverflow.com/questions/18506761/</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>1</v>
@@ -5784,7 +5784,7 @@
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/85206/ ")</f>
-        <v>https://stackoverflow.com/questions/85206/ </v>
+        <v>https://stackoverflow.com/questions/85206/</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>1</v>
@@ -5802,7 +5802,7 @@
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5726747/ ")</f>
-        <v>https://stackoverflow.com/questions/5726747/ </v>
+        <v>https://stackoverflow.com/questions/5726747/</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>1</v>
@@ -5820,7 +5820,7 @@
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5875455/ ")</f>
-        <v>https://stackoverflow.com/questions/5875455/ </v>
+        <v>https://stackoverflow.com/questions/5875455/</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>3</v>
@@ -5841,7 +5841,7 @@
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16635489/ ")</f>
-        <v>https://stackoverflow.com/questions/16635489/ </v>
+        <v>https://stackoverflow.com/questions/16635489/</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>1</v>
@@ -5859,7 +5859,7 @@
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16958286/ ")</f>
-        <v>https://stackoverflow.com/questions/16958286/ </v>
+        <v>https://stackoverflow.com/questions/16958286/</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>3</v>
@@ -5880,7 +5880,7 @@
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18198349/ ")</f>
-        <v>https://stackoverflow.com/questions/18198349/ </v>
+        <v>https://stackoverflow.com/questions/18198349/</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>3</v>
@@ -5898,7 +5898,7 @@
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19757456/ ")</f>
-        <v>https://stackoverflow.com/questions/19757456/ </v>
+        <v>https://stackoverflow.com/questions/19757456/</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>3</v>
@@ -5916,7 +5916,7 @@
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20130475/ ")</f>
-        <v>https://stackoverflow.com/questions/20130475/ </v>
+        <v>https://stackoverflow.com/questions/20130475/</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>1</v>
@@ -5934,7 +5934,7 @@
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/31228829/ ")</f>
-        <v>https://stackoverflow.com/questions/31228829/ </v>
+        <v>https://stackoverflow.com/questions/31228829/</v>
       </c>
       <c r="B404" s="0" t="n">
         <v>3</v>
@@ -5955,7 +5955,7 @@
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/31258084/ ")</f>
-        <v>https://stackoverflow.com/questions/31258084/ </v>
+        <v>https://stackoverflow.com/questions/31258084/</v>
       </c>
       <c r="B405" s="0" t="n">
         <v>1</v>
@@ -5984,7 +5984,7 @@
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/161005/ ")</f>
-        <v>https://stackoverflow.com/questions/161005/ </v>
+        <v>https://stackoverflow.com/questions/161005/</v>
       </c>
       <c r="B411" s="0" t="n">
         <v>1</v>
@@ -6002,7 +6002,7 @@
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3416539/ ")</f>
-        <v>https://stackoverflow.com/questions/3416539/ </v>
+        <v>https://stackoverflow.com/questions/3416539/</v>
       </c>
       <c r="B412" s="0" t="n">
         <v>2</v>
@@ -6020,7 +6020,7 @@
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10641864/ ")</f>
-        <v>https://stackoverflow.com/questions/10641864/ </v>
+        <v>https://stackoverflow.com/questions/10641864/</v>
       </c>
       <c r="B413" s="0" t="n">
         <v>1</v>
@@ -6038,7 +6038,7 @@
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18093929/ ")</f>
-        <v>https://stackoverflow.com/questions/18093929/ </v>
+        <v>https://stackoverflow.com/questions/18093929/</v>
       </c>
       <c r="B414" s="0" t="n">
         <v>2</v>
@@ -6056,7 +6056,7 @@
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23530199/ ")</f>
-        <v>https://stackoverflow.com/questions/23530199/ </v>
+        <v>https://stackoverflow.com/questions/23530199/</v>
       </c>
       <c r="B415" s="0" t="n">
         <v>1</v>
@@ -6074,7 +6074,7 @@
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23781433/ ")</f>
-        <v>https://stackoverflow.com/questions/23781433/ </v>
+        <v>https://stackoverflow.com/questions/23781433/</v>
       </c>
       <c r="B416" s="0" t="n">
         <v>1</v>
@@ -6092,7 +6092,7 @@
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/24845376/ ")</f>
-        <v>https://stackoverflow.com/questions/24845376/ </v>
+        <v>https://stackoverflow.com/questions/24845376/</v>
       </c>
       <c r="B417" s="0" t="n">
         <v>1</v>
@@ -6110,7 +6110,7 @@
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28891834/ ")</f>
-        <v>https://stackoverflow.com/questions/28891834/ </v>
+        <v>https://stackoverflow.com/questions/28891834/</v>
       </c>
       <c r="B418" s="0" t="n">
         <v>1</v>
@@ -6128,7 +6128,7 @@
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29331827/ ")</f>
-        <v>https://stackoverflow.com/questions/29331827/ </v>
+        <v>https://stackoverflow.com/questions/29331827/</v>
       </c>
       <c r="B419" s="0" t="n">
         <v>1</v>
@@ -6146,7 +6146,7 @@
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/32674216/ ")</f>
-        <v>https://stackoverflow.com/questions/32674216/ </v>
+        <v>https://stackoverflow.com/questions/32674216/</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>1</v>
@@ -6175,7 +6175,7 @@
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2635094/ ")</f>
-        <v>https://stackoverflow.com/questions/2635094/ </v>
+        <v>https://stackoverflow.com/questions/2635094/</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>1</v>
@@ -6193,7 +6193,7 @@
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2707665/ ")</f>
-        <v>https://stackoverflow.com/questions/2707665/ </v>
+        <v>https://stackoverflow.com/questions/2707665/</v>
       </c>
       <c r="B427" s="0" t="n">
         <v>5</v>
@@ -6214,7 +6214,7 @@
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4345678/ ")</f>
-        <v>https://stackoverflow.com/questions/4345678/ </v>
+        <v>https://stackoverflow.com/questions/4345678/</v>
       </c>
       <c r="B428" s="0" t="n">
         <v>2</v>
@@ -6232,7 +6232,7 @@
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7548429/ ")</f>
-        <v>https://stackoverflow.com/questions/7548429/ </v>
+        <v>https://stackoverflow.com/questions/7548429/</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>1</v>
@@ -6250,7 +6250,7 @@
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9500204/ ")</f>
-        <v>https://stackoverflow.com/questions/9500204/ </v>
+        <v>https://stackoverflow.com/questions/9500204/</v>
       </c>
       <c r="B430" s="0" t="n">
         <v>1</v>
@@ -6268,7 +6268,7 @@
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10665057/ ")</f>
-        <v>https://stackoverflow.com/questions/10665057/ </v>
+        <v>https://stackoverflow.com/questions/10665057/</v>
       </c>
       <c r="B431" s="0" t="n">
         <v>1</v>
@@ -6286,7 +6286,7 @@
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10894689/ ")</f>
-        <v>https://stackoverflow.com/questions/10894689/ </v>
+        <v>https://stackoverflow.com/questions/10894689/</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>1</v>
@@ -6304,7 +6304,7 @@
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15130382/ ")</f>
-        <v>https://stackoverflow.com/questions/15130382/ </v>
+        <v>https://stackoverflow.com/questions/15130382/</v>
       </c>
       <c r="B433" s="0" t="n">
         <v>1</v>
@@ -6322,7 +6322,7 @@
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21389883/ ")</f>
-        <v>https://stackoverflow.com/questions/21389883/ </v>
+        <v>https://stackoverflow.com/questions/21389883/</v>
       </c>
       <c r="B434" s="0" t="n">
         <v>1</v>
@@ -6340,7 +6340,7 @@
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/33286328/ ")</f>
-        <v>https://stackoverflow.com/questions/33286328/ </v>
+        <v>https://stackoverflow.com/questions/33286328/</v>
       </c>
       <c r="B435" s="0" t="n">
         <v>4</v>
@@ -6369,7 +6369,7 @@
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/481836/ ")</f>
-        <v>https://stackoverflow.com/questions/481836/ </v>
+        <v>https://stackoverflow.com/questions/481836/</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>1</v>
@@ -6387,7 +6387,7 @@
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/500643/ ")</f>
-        <v>https://stackoverflow.com/questions/500643/ </v>
+        <v>https://stackoverflow.com/questions/500643/</v>
       </c>
       <c r="B442" s="0" t="n">
         <v>2</v>
@@ -6405,7 +6405,7 @@
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7520464/ ")</f>
-        <v>https://stackoverflow.com/questions/7520464/ </v>
+        <v>https://stackoverflow.com/questions/7520464/</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>1</v>
@@ -6423,7 +6423,7 @@
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8304795/ ")</f>
-        <v>https://stackoverflow.com/questions/8304795/ </v>
+        <v>https://stackoverflow.com/questions/8304795/</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>5</v>
@@ -6441,7 +6441,7 @@
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10026065/ ")</f>
-        <v>https://stackoverflow.com/questions/10026065/ </v>
+        <v>https://stackoverflow.com/questions/10026065/</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>3</v>
@@ -6462,7 +6462,7 @@
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16521753/ ")</f>
-        <v>https://stackoverflow.com/questions/16521753/ </v>
+        <v>https://stackoverflow.com/questions/16521753/</v>
       </c>
       <c r="B446" s="0" t="n">
         <v>2</v>
@@ -6480,7 +6480,7 @@
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16521798/ ")</f>
-        <v>https://stackoverflow.com/questions/16521798/ </v>
+        <v>https://stackoverflow.com/questions/16521798/</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>2</v>
@@ -6498,7 +6498,7 @@
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/32594659/ ")</f>
-        <v>https://stackoverflow.com/questions/32594659/ </v>
+        <v>https://stackoverflow.com/questions/32594659/</v>
       </c>
       <c r="B448" s="0" t="n">
         <v>5</v>
@@ -6516,7 +6516,7 @@
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/43701445/ ")</f>
-        <v>https://stackoverflow.com/questions/43701445/ </v>
+        <v>https://stackoverflow.com/questions/43701445/</v>
       </c>
       <c r="B449" s="0" t="n">
         <v>4</v>
@@ -6537,7 +6537,7 @@
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/47911244/ ")</f>
-        <v>https://stackoverflow.com/questions/47911244/ </v>
+        <v>https://stackoverflow.com/questions/47911244/</v>
       </c>
       <c r="B450" s="0" t="n">
         <v>2</v>
@@ -6566,7 +6566,7 @@
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/355177/ ")</f>
-        <v>https://stackoverflow.com/questions/355177/ </v>
+        <v>https://stackoverflow.com/questions/355177/</v>
       </c>
       <c r="B456" s="0" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1036763/ ")</f>
-        <v>https://stackoverflow.com/questions/1036763/ </v>
+        <v>https://stackoverflow.com/questions/1036763/</v>
       </c>
       <c r="B457" s="0" t="n">
         <v>1</v>
@@ -6602,7 +6602,7 @@
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1036808/ ")</f>
-        <v>https://stackoverflow.com/questions/1036808/ </v>
+        <v>https://stackoverflow.com/questions/1036808/</v>
       </c>
       <c r="B458" s="0" t="n">
         <v>3</v>
@@ -6623,7 +6623,7 @@
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1881761/ ")</f>
-        <v>https://stackoverflow.com/questions/1881761/ </v>
+        <v>https://stackoverflow.com/questions/1881761/</v>
       </c>
       <c r="B459" s="0" t="n">
         <v>1</v>
@@ -6641,7 +6641,7 @@
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2275596/ ")</f>
-        <v>https://stackoverflow.com/questions/2275596/ </v>
+        <v>https://stackoverflow.com/questions/2275596/</v>
       </c>
       <c r="B460" s="0" t="n">
         <v>2</v>
@@ -6659,7 +6659,7 @@
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2491754/ ")</f>
-        <v>https://stackoverflow.com/questions/2491754/ </v>
+        <v>https://stackoverflow.com/questions/2491754/</v>
       </c>
       <c r="B461" s="0" t="n">
         <v>4</v>
@@ -6677,7 +6677,7 @@
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10962613/ ")</f>
-        <v>https://stackoverflow.com/questions/10962613/ </v>
+        <v>https://stackoverflow.com/questions/10962613/</v>
       </c>
       <c r="B462" s="0" t="n">
         <v>4</v>
@@ -6695,7 +6695,7 @@
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16057610/ ")</f>
-        <v>https://stackoverflow.com/questions/16057610/ </v>
+        <v>https://stackoverflow.com/questions/16057610/</v>
       </c>
       <c r="B463" s="0" t="n">
         <v>5</v>
@@ -6713,7 +6713,7 @@
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/31997172/ ")</f>
-        <v>https://stackoverflow.com/questions/31997172/ </v>
+        <v>https://stackoverflow.com/questions/31997172/</v>
       </c>
       <c r="B464" s="0" t="n">
         <v>3</v>
@@ -6731,7 +6731,7 @@
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/35641743/ ")</f>
-        <v>https://stackoverflow.com/questions/35641743/ </v>
+        <v>https://stackoverflow.com/questions/35641743/</v>
       </c>
       <c r="B465" s="0" t="n">
         <v>1</v>
@@ -6760,7 +6760,7 @@
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1001562/ ")</f>
-        <v>https://stackoverflow.com/questions/1001562/ </v>
+        <v>https://stackoverflow.com/questions/1001562/</v>
       </c>
       <c r="B471" s="0" t="n">
         <v>3</v>
@@ -6781,7 +6781,7 @@
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1053475/ ")</f>
-        <v>https://stackoverflow.com/questions/1053475/ </v>
+        <v>https://stackoverflow.com/questions/1053475/</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>5</v>
@@ -6799,7 +6799,7 @@
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1053487/ ")</f>
-        <v>https://stackoverflow.com/questions/1053487/ </v>
+        <v>https://stackoverflow.com/questions/1053487/</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>3</v>
@@ -6820,7 +6820,7 @@
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1994283/ ")</f>
-        <v>https://stackoverflow.com/questions/1994283/ </v>
+        <v>https://stackoverflow.com/questions/1994283/</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>2</v>
@@ -6838,7 +6838,7 @@
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2788114/ ")</f>
-        <v>https://stackoverflow.com/questions/2788114/ </v>
+        <v>https://stackoverflow.com/questions/2788114/</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>1</v>
@@ -6856,7 +6856,7 @@
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4269319/ ")</f>
-        <v>https://stackoverflow.com/questions/4269319/ </v>
+        <v>https://stackoverflow.com/questions/4269319/</v>
       </c>
       <c r="B476" s="0" t="n">
         <v>2</v>
@@ -6874,7 +6874,7 @@
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4614244/ ")</f>
-        <v>https://stackoverflow.com/questions/4614244/ </v>
+        <v>https://stackoverflow.com/questions/4614244/</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>2</v>
@@ -6892,7 +6892,7 @@
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6998929/ ")</f>
-        <v>https://stackoverflow.com/questions/6998929/ </v>
+        <v>https://stackoverflow.com/questions/6998929/</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>2</v>
@@ -6910,7 +6910,7 @@
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9621189/ ")</f>
-        <v>https://stackoverflow.com/questions/9621189/ </v>
+        <v>https://stackoverflow.com/questions/9621189/</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>1</v>
@@ -6928,7 +6928,7 @@
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15393727/ ")</f>
-        <v>https://stackoverflow.com/questions/15393727/ </v>
+        <v>https://stackoverflow.com/questions/15393727/</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>2</v>
@@ -6957,7 +6957,7 @@
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/197391/ ")</f>
-        <v>https://stackoverflow.com/questions/197391/ </v>
+        <v>https://stackoverflow.com/questions/197391/</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>4</v>
@@ -6978,7 +6978,7 @@
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/745769/ ")</f>
-        <v>https://stackoverflow.com/questions/745769/ </v>
+        <v>https://stackoverflow.com/questions/745769/</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>5</v>
@@ -6996,7 +6996,7 @@
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1298053/ ")</f>
-        <v>https://stackoverflow.com/questions/1298053/ </v>
+        <v>https://stackoverflow.com/questions/1298053/</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>1</v>
@@ -7014,7 +7014,7 @@
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1623494/ ")</f>
-        <v>https://stackoverflow.com/questions/1623494/ </v>
+        <v>https://stackoverflow.com/questions/1623494/</v>
       </c>
       <c r="B489" s="0" t="n">
         <v>4</v>
@@ -7035,7 +7035,7 @@
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5381053/ ")</f>
-        <v>https://stackoverflow.com/questions/5381053/ </v>
+        <v>https://stackoverflow.com/questions/5381053/</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>1</v>
@@ -7053,7 +7053,7 @@
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9133346/ ")</f>
-        <v>https://stackoverflow.com/questions/9133346/ </v>
+        <v>https://stackoverflow.com/questions/9133346/</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>1</v>
@@ -7071,7 +7071,7 @@
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13261667/ ")</f>
-        <v>https://stackoverflow.com/questions/13261667/ </v>
+        <v>https://stackoverflow.com/questions/13261667/</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>4</v>
@@ -7092,7 +7092,7 @@
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16970179/ ")</f>
-        <v>https://stackoverflow.com/questions/16970179/ </v>
+        <v>https://stackoverflow.com/questions/16970179/</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>1</v>
@@ -7110,7 +7110,7 @@
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23239009/ ")</f>
-        <v>https://stackoverflow.com/questions/23239009/ </v>
+        <v>https://stackoverflow.com/questions/23239009/</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>1</v>
@@ -7128,7 +7128,7 @@
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/44303941/ ")</f>
-        <v>https://stackoverflow.com/questions/44303941/ </v>
+        <v>https://stackoverflow.com/questions/44303941/</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>1</v>
@@ -7159,7 +7159,7 @@
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1323419/ ")</f>
-        <v>https://stackoverflow.com/questions/1323419/ </v>
+        <v>https://stackoverflow.com/questions/1323419/</v>
       </c>
       <c r="B501" s="0" t="n">
         <v>1</v>
@@ -7177,7 +7177,7 @@
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1922300/ ")</f>
-        <v>https://stackoverflow.com/questions/1922300/ </v>
+        <v>https://stackoverflow.com/questions/1922300/</v>
       </c>
       <c r="B502" s="0" t="n">
         <v>5</v>
@@ -7195,7 +7195,7 @@
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3018672/ ")</f>
-        <v>https://stackoverflow.com/questions/3018672/ </v>
+        <v>https://stackoverflow.com/questions/3018672/</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>3</v>
@@ -7213,7 +7213,7 @@
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9963498/ ")</f>
-        <v>https://stackoverflow.com/questions/9963498/ </v>
+        <v>https://stackoverflow.com/questions/9963498/</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>4</v>
@@ -7234,7 +7234,7 @@
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11366828/ ")</f>
-        <v>https://stackoverflow.com/questions/11366828/ </v>
+        <v>https://stackoverflow.com/questions/11366828/</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>1</v>
@@ -7252,7 +7252,7 @@
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11537026/ ")</f>
-        <v>https://stackoverflow.com/questions/11537026/ </v>
+        <v>https://stackoverflow.com/questions/11537026/</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>5</v>
@@ -7270,7 +7270,7 @@
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19757456/ ")</f>
-        <v>https://stackoverflow.com/questions/19757456/ </v>
+        <v>https://stackoverflow.com/questions/19757456/</v>
       </c>
       <c r="B507" s="0" t="n">
         <v>1</v>
@@ -7288,7 +7288,7 @@
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28545020/ ")</f>
-        <v>https://stackoverflow.com/questions/28545020/ </v>
+        <v>https://stackoverflow.com/questions/28545020/</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>1</v>
@@ -7306,7 +7306,7 @@
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28545238/ ")</f>
-        <v>https://stackoverflow.com/questions/28545238/ </v>
+        <v>https://stackoverflow.com/questions/28545238/</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>1</v>
@@ -7324,7 +7324,7 @@
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/33344392/ ")</f>
-        <v>https://stackoverflow.com/questions/33344392/ </v>
+        <v>https://stackoverflow.com/questions/33344392/</v>
       </c>
       <c r="B510" s="0" t="n">
         <v>2</v>
@@ -7353,7 +7353,7 @@
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/526069/ ")</f>
-        <v>https://stackoverflow.com/questions/526069/ </v>
+        <v>https://stackoverflow.com/questions/526069/</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>3</v>
@@ -7371,7 +7371,7 @@
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/526080/ ")</f>
-        <v>https://stackoverflow.com/questions/526080/ </v>
+        <v>https://stackoverflow.com/questions/526080/</v>
       </c>
       <c r="B517" s="0" t="n">
         <v>2</v>
@@ -7389,7 +7389,7 @@
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/550336/ ")</f>
-        <v>https://stackoverflow.com/questions/550336/ </v>
+        <v>https://stackoverflow.com/questions/550336/</v>
       </c>
       <c r="B518" s="0" t="n">
         <v>4</v>
@@ -7407,7 +7407,7 @@
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5969136/ ")</f>
-        <v>https://stackoverflow.com/questions/5969136/ </v>
+        <v>https://stackoverflow.com/questions/5969136/</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>1</v>
@@ -7425,7 +7425,7 @@
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6185359/ ")</f>
-        <v>https://stackoverflow.com/questions/6185359/ </v>
+        <v>https://stackoverflow.com/questions/6185359/</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>1</v>
@@ -7443,7 +7443,7 @@
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6343299/ ")</f>
-        <v>https://stackoverflow.com/questions/6343299/ </v>
+        <v>https://stackoverflow.com/questions/6343299/</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6403880/ ")</f>
-        <v>https://stackoverflow.com/questions/6403880/ </v>
+        <v>https://stackoverflow.com/questions/6403880/</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>1</v>
@@ -7479,7 +7479,7 @@
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8050952/ ")</f>
-        <v>https://stackoverflow.com/questions/8050952/ </v>
+        <v>https://stackoverflow.com/questions/8050952/</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>2</v>
@@ -7497,7 +7497,7 @@
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9289190/ ")</f>
-        <v>https://stackoverflow.com/questions/9289190/ </v>
+        <v>https://stackoverflow.com/questions/9289190/</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>1</v>
@@ -7515,7 +7515,7 @@
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29456695/ ")</f>
-        <v>https://stackoverflow.com/questions/29456695/ </v>
+        <v>https://stackoverflow.com/questions/29456695/</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>1</v>
@@ -7544,7 +7544,7 @@
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/123305/ ")</f>
-        <v>https://stackoverflow.com/questions/123305/ </v>
+        <v>https://stackoverflow.com/questions/123305/</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>2</v>
@@ -7562,7 +7562,7 @@
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13951173/ ")</f>
-        <v>https://stackoverflow.com/questions/13951173/ </v>
+        <v>https://stackoverflow.com/questions/13951173/</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>2</v>
@@ -7580,7 +7580,7 @@
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13951176/ ")</f>
-        <v>https://stackoverflow.com/questions/13951176/ </v>
+        <v>https://stackoverflow.com/questions/13951176/</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>2</v>
@@ -7598,7 +7598,7 @@
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17764581/ ")</f>
-        <v>https://stackoverflow.com/questions/17764581/ </v>
+        <v>https://stackoverflow.com/questions/17764581/</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>3</v>
@@ -7619,7 +7619,7 @@
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17781399/ ")</f>
-        <v>https://stackoverflow.com/questions/17781399/ </v>
+        <v>https://stackoverflow.com/questions/17781399/</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>3</v>
@@ -7637,7 +7637,7 @@
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18873091/ ")</f>
-        <v>https://stackoverflow.com/questions/18873091/ </v>
+        <v>https://stackoverflow.com/questions/18873091/</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>3</v>
@@ -7658,7 +7658,7 @@
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20594711/ ")</f>
-        <v>https://stackoverflow.com/questions/20594711/ </v>
+        <v>https://stackoverflow.com/questions/20594711/</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>1</v>
@@ -7676,7 +7676,7 @@
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/33250401/ ")</f>
-        <v>https://stackoverflow.com/questions/33250401/ </v>
+        <v>https://stackoverflow.com/questions/33250401/</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>2</v>
@@ -7694,7 +7694,7 @@
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/34640920/ ")</f>
-        <v>https://stackoverflow.com/questions/34640920/ </v>
+        <v>https://stackoverflow.com/questions/34640920/</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>1</v>
@@ -7712,7 +7712,7 @@
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/44413127/ ")</f>
-        <v>https://stackoverflow.com/questions/44413127/ </v>
+        <v>https://stackoverflow.com/questions/44413127/</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>2</v>
@@ -7741,7 +7741,7 @@
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/708708/ ")</f>
-        <v>https://stackoverflow.com/questions/708708/ </v>
+        <v>https://stackoverflow.com/questions/708708/</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>2</v>
@@ -7759,7 +7759,7 @@
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/709056/ ")</f>
-        <v>https://stackoverflow.com/questions/709056/ </v>
+        <v>https://stackoverflow.com/questions/709056/</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>2</v>
@@ -7777,7 +7777,7 @@
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1695123/ ")</f>
-        <v>https://stackoverflow.com/questions/1695123/ </v>
+        <v>https://stackoverflow.com/questions/1695123/</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>2</v>
@@ -7795,7 +7795,7 @@
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2663382/ ")</f>
-        <v>https://stackoverflow.com/questions/2663382/ </v>
+        <v>https://stackoverflow.com/questions/2663382/</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>2</v>
@@ -7813,7 +7813,7 @@
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5894842/ ")</f>
-        <v>https://stackoverflow.com/questions/5894842/ </v>
+        <v>https://stackoverflow.com/questions/5894842/</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>2</v>
@@ -7831,7 +7831,7 @@
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15431324/ ")</f>
-        <v>https://stackoverflow.com/questions/15431324/ </v>
+        <v>https://stackoverflow.com/questions/15431324/</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>2</v>
@@ -7849,7 +7849,7 @@
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15840164/ ")</f>
-        <v>https://stackoverflow.com/questions/15840164/ </v>
+        <v>https://stackoverflow.com/questions/15840164/</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>2</v>
@@ -7867,7 +7867,7 @@
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17289207/ ")</f>
-        <v>https://stackoverflow.com/questions/17289207/ </v>
+        <v>https://stackoverflow.com/questions/17289207/</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>2</v>
@@ -7885,7 +7885,7 @@
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/22357470/ ")</f>
-        <v>https://stackoverflow.com/questions/22357470/ </v>
+        <v>https://stackoverflow.com/questions/22357470/</v>
       </c>
       <c r="B554" s="0" t="n">
         <v>2</v>
@@ -7903,7 +7903,7 @@
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/35971235/ ")</f>
-        <v>https://stackoverflow.com/questions/35971235/ </v>
+        <v>https://stackoverflow.com/questions/35971235/</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>2</v>
@@ -7932,7 +7932,7 @@
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/858590/ ")</f>
-        <v>https://stackoverflow.com/questions/858590/ </v>
+        <v>https://stackoverflow.com/questions/858590/</v>
       </c>
       <c r="B561" s="0" t="n">
         <v>1</v>
@@ -7950,7 +7950,7 @@
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/858602/ ")</f>
-        <v>https://stackoverflow.com/questions/858602/ </v>
+        <v>https://stackoverflow.com/questions/858602/</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>1</v>
@@ -7968,7 +7968,7 @@
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2607335/ ")</f>
-        <v>https://stackoverflow.com/questions/2607335/ </v>
+        <v>https://stackoverflow.com/questions/2607335/</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>1</v>
@@ -7986,7 +7986,7 @@
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2965808/ ")</f>
-        <v>https://stackoverflow.com/questions/2965808/ </v>
+        <v>https://stackoverflow.com/questions/2965808/</v>
       </c>
       <c r="B564" s="0" t="n">
         <v>1</v>
@@ -8004,7 +8004,7 @@
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6631081/ ")</f>
-        <v>https://stackoverflow.com/questions/6631081/ </v>
+        <v>https://stackoverflow.com/questions/6631081/</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>1</v>
@@ -8022,7 +8022,7 @@
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7671021/ ")</f>
-        <v>https://stackoverflow.com/questions/7671021/ </v>
+        <v>https://stackoverflow.com/questions/7671021/</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>1</v>
@@ -8040,7 +8040,7 @@
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11227902/ ")</f>
-        <v>https://stackoverflow.com/questions/11227902/ </v>
+        <v>https://stackoverflow.com/questions/11227902/</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>1</v>
@@ -8058,7 +8058,7 @@
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12949719/ ")</f>
-        <v>https://stackoverflow.com/questions/12949719/ </v>
+        <v>https://stackoverflow.com/questions/12949719/</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>2</v>
@@ -8076,7 +8076,7 @@
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/26076682/ ")</f>
-        <v>https://stackoverflow.com/questions/26076682/ </v>
+        <v>https://stackoverflow.com/questions/26076682/</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>1</v>
@@ -8094,7 +8094,7 @@
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/33070112/ ")</f>
-        <v>https://stackoverflow.com/questions/33070112/ </v>
+        <v>https://stackoverflow.com/questions/33070112/</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>1</v>
@@ -8123,7 +8123,7 @@
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/513871/ ")</f>
-        <v>https://stackoverflow.com/questions/513871/ </v>
+        <v>https://stackoverflow.com/questions/513871/</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>1</v>
@@ -8141,7 +8141,7 @@
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/515000/ ")</f>
-        <v>https://stackoverflow.com/questions/515000/ </v>
+        <v>https://stackoverflow.com/questions/515000/</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>1</v>
@@ -8159,7 +8159,7 @@
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1795946/ ")</f>
-        <v>https://stackoverflow.com/questions/1795946/ </v>
+        <v>https://stackoverflow.com/questions/1795946/</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>1</v>
@@ -8177,7 +8177,7 @@
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1808879/ ")</f>
-        <v>https://stackoverflow.com/questions/1808879/ </v>
+        <v>https://stackoverflow.com/questions/1808879/</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>1</v>
@@ -8198,7 +8198,7 @@
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3801355/ ")</f>
-        <v>https://stackoverflow.com/questions/3801355/ </v>
+        <v>https://stackoverflow.com/questions/3801355/</v>
       </c>
       <c r="B580" s="0" t="n">
         <v>1</v>
@@ -8216,7 +8216,7 @@
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4775428/ ")</f>
-        <v>https://stackoverflow.com/questions/4775428/ </v>
+        <v>https://stackoverflow.com/questions/4775428/</v>
       </c>
       <c r="B581" s="0" t="n">
         <v>2</v>
@@ -8234,7 +8234,7 @@
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8898617/ ")</f>
-        <v>https://stackoverflow.com/questions/8898617/ </v>
+        <v>https://stackoverflow.com/questions/8898617/</v>
       </c>
       <c r="B582" s="0" t="n">
         <v>1</v>
@@ -8255,7 +8255,7 @@
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23620933/ ")</f>
-        <v>https://stackoverflow.com/questions/23620933/ </v>
+        <v>https://stackoverflow.com/questions/23620933/</v>
       </c>
       <c r="B583" s="0" t="n">
         <v>2</v>
@@ -8273,7 +8273,7 @@
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23620942/ ")</f>
-        <v>https://stackoverflow.com/questions/23620942/ </v>
+        <v>https://stackoverflow.com/questions/23620942/</v>
       </c>
       <c r="B584" s="0" t="n">
         <v>1</v>
@@ -8291,7 +8291,7 @@
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28188570/ ")</f>
-        <v>https://stackoverflow.com/questions/28188570/ </v>
+        <v>https://stackoverflow.com/questions/28188570/</v>
       </c>
       <c r="B585" s="0" t="n">
         <v>1</v>
@@ -8320,7 +8320,7 @@
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7911697/ ")</f>
-        <v>https://stackoverflow.com/questions/7911697/ </v>
+        <v>https://stackoverflow.com/questions/7911697/</v>
       </c>
       <c r="B591" s="0" t="n">
         <v>1</v>
@@ -8338,7 +8338,7 @@
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8360820/ ")</f>
-        <v>https://stackoverflow.com/questions/8360820/ </v>
+        <v>https://stackoverflow.com/questions/8360820/</v>
       </c>
       <c r="B592" s="0" t="n">
         <v>1</v>
@@ -8356,7 +8356,7 @@
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8360827/ ")</f>
-        <v>https://stackoverflow.com/questions/8360827/ </v>
+        <v>https://stackoverflow.com/questions/8360827/</v>
       </c>
       <c r="B593" s="0" t="n">
         <v>4</v>
@@ -8374,7 +8374,7 @@
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8772274/ ")</f>
-        <v>https://stackoverflow.com/questions/8772274/ </v>
+        <v>https://stackoverflow.com/questions/8772274/</v>
       </c>
       <c r="B594" s="0" t="n">
         <v>3</v>
@@ -8392,7 +8392,7 @@
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8772337/ ")</f>
-        <v>https://stackoverflow.com/questions/8772337/ </v>
+        <v>https://stackoverflow.com/questions/8772337/</v>
       </c>
       <c r="B595" s="0" t="n">
         <v>3</v>
@@ -8413,7 +8413,7 @@
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8856865/ ")</f>
-        <v>https://stackoverflow.com/questions/8856865/ </v>
+        <v>https://stackoverflow.com/questions/8856865/</v>
       </c>
       <c r="B596" s="0" t="n">
         <v>2</v>
@@ -8431,7 +8431,7 @@
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8882317/ ")</f>
-        <v>https://stackoverflow.com/questions/8882317/ </v>
+        <v>https://stackoverflow.com/questions/8882317/</v>
       </c>
       <c r="B597" s="0" t="n">
         <v>1</v>
@@ -8449,7 +8449,7 @@
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8882358/ ")</f>
-        <v>https://stackoverflow.com/questions/8882358/ </v>
+        <v>https://stackoverflow.com/questions/8882358/</v>
       </c>
       <c r="B598" s="0" t="n">
         <v>1</v>
@@ -8467,7 +8467,7 @@
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28169244/ ")</f>
-        <v>https://stackoverflow.com/questions/28169244/ </v>
+        <v>https://stackoverflow.com/questions/28169244/</v>
       </c>
       <c r="B599" s="0" t="n">
         <v>1</v>
@@ -8485,7 +8485,7 @@
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/35339909/ ")</f>
-        <v>https://stackoverflow.com/questions/35339909/ </v>
+        <v>https://stackoverflow.com/questions/35339909/</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>1</v>
@@ -8514,7 +8514,7 @@
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4216767/ ")</f>
-        <v>https://stackoverflow.com/questions/4216767/ </v>
+        <v>https://stackoverflow.com/questions/4216767/</v>
       </c>
       <c r="B606" s="0" t="n">
         <v>4</v>
@@ -8532,7 +8532,7 @@
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4772461/ ")</f>
-        <v>https://stackoverflow.com/questions/4772461/ </v>
+        <v>https://stackoverflow.com/questions/4772461/</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>5</v>
@@ -8553,7 +8553,7 @@
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6891209/ ")</f>
-        <v>https://stackoverflow.com/questions/6891209/ </v>
+        <v>https://stackoverflow.com/questions/6891209/</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>1</v>
@@ -8571,7 +8571,7 @@
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11046198/ ")</f>
-        <v>https://stackoverflow.com/questions/11046198/ </v>
+        <v>https://stackoverflow.com/questions/11046198/</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>5</v>
@@ -8592,7 +8592,7 @@
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16706448/ ")</f>
-        <v>https://stackoverflow.com/questions/16706448/ </v>
+        <v>https://stackoverflow.com/questions/16706448/</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>2</v>
@@ -8610,7 +8610,7 @@
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/22463063/ ")</f>
-        <v>https://stackoverflow.com/questions/22463063/ </v>
+        <v>https://stackoverflow.com/questions/22463063/</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>4</v>
@@ -8628,7 +8628,7 @@
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25376733/ ")</f>
-        <v>https://stackoverflow.com/questions/25376733/ </v>
+        <v>https://stackoverflow.com/questions/25376733/</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>2</v>
@@ -8646,7 +8646,7 @@
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25377049/ ")</f>
-        <v>https://stackoverflow.com/questions/25377049/ </v>
+        <v>https://stackoverflow.com/questions/25377049/</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>3</v>
@@ -8667,7 +8667,7 @@
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/27479533/ ")</f>
-        <v>https://stackoverflow.com/questions/27479533/ </v>
+        <v>https://stackoverflow.com/questions/27479533/</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>4</v>
@@ -8688,7 +8688,7 @@
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/39812889/ ")</f>
-        <v>https://stackoverflow.com/questions/39812889/ </v>
+        <v>https://stackoverflow.com/questions/39812889/</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>3</v>
@@ -8720,7 +8720,7 @@
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/54912/ ")</f>
-        <v>https://stackoverflow.com/questions/54912/ </v>
+        <v>https://stackoverflow.com/questions/54912/</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>3</v>
@@ -8738,7 +8738,7 @@
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/56383/ ")</f>
-        <v>https://stackoverflow.com/questions/56383/ </v>
+        <v>https://stackoverflow.com/questions/56383/</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>1</v>
@@ -8756,7 +8756,7 @@
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/73021/ ")</f>
-        <v>https://stackoverflow.com/questions/73021/ </v>
+        <v>https://stackoverflow.com/questions/73021/</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>1</v>
@@ -8774,7 +8774,7 @@
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/869051/ ")</f>
-        <v>https://stackoverflow.com/questions/869051/ </v>
+        <v>https://stackoverflow.com/questions/869051/</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>2</v>
@@ -8792,7 +8792,7 @@
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1088271/ ")</f>
-        <v>https://stackoverflow.com/questions/1088271/ </v>
+        <v>https://stackoverflow.com/questions/1088271/</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>1</v>
@@ -8810,7 +8810,7 @@
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8441681/ ")</f>
-        <v>https://stackoverflow.com/questions/8441681/ </v>
+        <v>https://stackoverflow.com/questions/8441681/</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>1</v>
@@ -8831,7 +8831,7 @@
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10079457/ ")</f>
-        <v>https://stackoverflow.com/questions/10079457/ </v>
+        <v>https://stackoverflow.com/questions/10079457/</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>1</v>
@@ -8849,7 +8849,7 @@
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12429953/ ")</f>
-        <v>https://stackoverflow.com/questions/12429953/ </v>
+        <v>https://stackoverflow.com/questions/12429953/</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>1</v>
@@ -8867,7 +8867,7 @@
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17719538/ ")</f>
-        <v>https://stackoverflow.com/questions/17719538/ </v>
+        <v>https://stackoverflow.com/questions/17719538/</v>
       </c>
       <c r="B629" s="0" t="n">
         <v>1</v>
@@ -8885,7 +8885,7 @@
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23177411/ ")</f>
-        <v>https://stackoverflow.com/questions/23177411/ </v>
+        <v>https://stackoverflow.com/questions/23177411/</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>1</v>
@@ -8914,7 +8914,7 @@
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/154939/ ")</f>
-        <v>https://stackoverflow.com/questions/154939/ </v>
+        <v>https://stackoverflow.com/questions/154939/</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>4</v>
@@ -8935,7 +8935,7 @@
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/212624/ ")</f>
-        <v>https://stackoverflow.com/questions/212624/ </v>
+        <v>https://stackoverflow.com/questions/212624/</v>
       </c>
       <c r="B637" s="0" t="n">
         <v>4</v>
@@ -8953,7 +8953,7 @@
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1320773/ ")</f>
-        <v>https://stackoverflow.com/questions/1320773/ </v>
+        <v>https://stackoverflow.com/questions/1320773/</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>1</v>
@@ -8971,7 +8971,7 @@
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1814112/ ")</f>
-        <v>https://stackoverflow.com/questions/1814112/ </v>
+        <v>https://stackoverflow.com/questions/1814112/</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>1</v>
@@ -8989,7 +8989,7 @@
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2770692/ ")</f>
-        <v>https://stackoverflow.com/questions/2770692/ </v>
+        <v>https://stackoverflow.com/questions/2770692/</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>1</v>
@@ -9007,7 +9007,7 @@
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2839150/ ")</f>
-        <v>https://stackoverflow.com/questions/2839150/ </v>
+        <v>https://stackoverflow.com/questions/2839150/</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>1</v>
@@ -9025,7 +9025,7 @@
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3051465/ ")</f>
-        <v>https://stackoverflow.com/questions/3051465/ </v>
+        <v>https://stackoverflow.com/questions/3051465/</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>1</v>
@@ -9043,7 +9043,7 @@
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3051504/ ")</f>
-        <v>https://stackoverflow.com/questions/3051504/ </v>
+        <v>https://stackoverflow.com/questions/3051504/</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>1</v>
@@ -9061,7 +9061,7 @@
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5506438/ ")</f>
-        <v>https://stackoverflow.com/questions/5506438/ </v>
+        <v>https://stackoverflow.com/questions/5506438/</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>2</v>
@@ -9079,7 +9079,7 @@
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5848516/ ")</f>
-        <v>https://stackoverflow.com/questions/5848516/ </v>
+        <v>https://stackoverflow.com/questions/5848516/</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>1</v>
@@ -9108,7 +9108,7 @@
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/229006/ ")</f>
-        <v>https://stackoverflow.com/questions/229006/ </v>
+        <v>https://stackoverflow.com/questions/229006/</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>1</v>
@@ -9126,7 +9126,7 @@
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2672217/ ")</f>
-        <v>https://stackoverflow.com/questions/2672217/ </v>
+        <v>https://stackoverflow.com/questions/2672217/</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>4</v>
@@ -9144,7 +9144,7 @@
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2674750/ ")</f>
-        <v>https://stackoverflow.com/questions/2674750/ </v>
+        <v>https://stackoverflow.com/questions/2674750/</v>
       </c>
       <c r="B653" s="0" t="n">
         <v>1</v>
@@ -9162,7 +9162,7 @@
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3076081/ ")</f>
-        <v>https://stackoverflow.com/questions/3076081/ </v>
+        <v>https://stackoverflow.com/questions/3076081/</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3087026/ ")</f>
-        <v>https://stackoverflow.com/questions/3087026/ </v>
+        <v>https://stackoverflow.com/questions/3087026/</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>2</v>
@@ -9198,7 +9198,7 @@
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3262979/ ")</f>
-        <v>https://stackoverflow.com/questions/3262979/ </v>
+        <v>https://stackoverflow.com/questions/3262979/</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>1</v>
@@ -9216,7 +9216,7 @@
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14053260/ ")</f>
-        <v>https://stackoverflow.com/questions/14053260/ </v>
+        <v>https://stackoverflow.com/questions/14053260/</v>
       </c>
       <c r="B657" s="0" t="n">
         <v>3</v>
@@ -9237,7 +9237,7 @@
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21992128/ ")</f>
-        <v>https://stackoverflow.com/questions/21992128/ </v>
+        <v>https://stackoverflow.com/questions/21992128/</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>1</v>
@@ -9255,7 +9255,7 @@
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/22439976/ ")</f>
-        <v>https://stackoverflow.com/questions/22439976/ </v>
+        <v>https://stackoverflow.com/questions/22439976/</v>
       </c>
       <c r="B659" s="0" t="n">
         <v>1</v>
@@ -9273,7 +9273,7 @@
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/48084169/ ")</f>
-        <v>https://stackoverflow.com/questions/48084169/ </v>
+        <v>https://stackoverflow.com/questions/48084169/</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>4</v>
@@ -9305,7 +9305,7 @@
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2406441/ ")</f>
-        <v>https://stackoverflow.com/questions/2406441/ </v>
+        <v>https://stackoverflow.com/questions/2406441/</v>
       </c>
       <c r="B666" s="0" t="n">
         <v>1</v>
@@ -9323,7 +9323,7 @@
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7438009/ ")</f>
-        <v>https://stackoverflow.com/questions/7438009/ </v>
+        <v>https://stackoverflow.com/questions/7438009/</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>5</v>
@@ -9341,7 +9341,7 @@
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7438011/ ")</f>
-        <v>https://stackoverflow.com/questions/7438011/ </v>
+        <v>https://stackoverflow.com/questions/7438011/</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>5</v>
@@ -9359,7 +9359,7 @@
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7438015/ ")</f>
-        <v>https://stackoverflow.com/questions/7438015/ </v>
+        <v>https://stackoverflow.com/questions/7438015/</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>5</v>
@@ -9377,7 +9377,7 @@
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/22293583/ ")</f>
-        <v>https://stackoverflow.com/questions/22293583/ </v>
+        <v>https://stackoverflow.com/questions/22293583/</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>4</v>
@@ -9395,7 +9395,7 @@
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/22293587/ ")</f>
-        <v>https://stackoverflow.com/questions/22293587/ </v>
+        <v>https://stackoverflow.com/questions/22293587/</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>4</v>
@@ -9413,7 +9413,7 @@
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28307418/ ")</f>
-        <v>https://stackoverflow.com/questions/28307418/ </v>
+        <v>https://stackoverflow.com/questions/28307418/</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>5</v>
@@ -9431,7 +9431,7 @@
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/38622191/ ")</f>
-        <v>https://stackoverflow.com/questions/38622191/ </v>
+        <v>https://stackoverflow.com/questions/38622191/</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>1</v>
@@ -9449,7 +9449,7 @@
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/40736345/ ")</f>
-        <v>https://stackoverflow.com/questions/40736345/ </v>
+        <v>https://stackoverflow.com/questions/40736345/</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>3</v>
@@ -9470,7 +9470,7 @@
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/44614892/ ")</f>
-        <v>https://stackoverflow.com/questions/44614892/ </v>
+        <v>https://stackoverflow.com/questions/44614892/</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>3</v>
@@ -9499,7 +9499,7 @@
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1646006/ ")</f>
-        <v>https://stackoverflow.com/questions/1646006/ </v>
+        <v>https://stackoverflow.com/questions/1646006/</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>1</v>
@@ -9517,7 +9517,7 @@
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2406441/ ")</f>
-        <v>https://stackoverflow.com/questions/2406441/ </v>
+        <v>https://stackoverflow.com/questions/2406441/</v>
       </c>
       <c r="B682" s="0" t="n">
         <v>1</v>
@@ -9535,7 +9535,7 @@
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10813256/ ")</f>
-        <v>https://stackoverflow.com/questions/10813256/ </v>
+        <v>https://stackoverflow.com/questions/10813256/</v>
       </c>
       <c r="B683" s="0" t="n">
         <v>1</v>
@@ -9553,7 +9553,7 @@
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10813308/ ")</f>
-        <v>https://stackoverflow.com/questions/10813308/ </v>
+        <v>https://stackoverflow.com/questions/10813308/</v>
       </c>
       <c r="B684" s="0" t="n">
         <v>1</v>
@@ -9571,7 +9571,7 @@
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13143005/ ")</f>
-        <v>https://stackoverflow.com/questions/13143005/ </v>
+        <v>https://stackoverflow.com/questions/13143005/</v>
       </c>
       <c r="B685" s="0" t="n">
         <v>1</v>
@@ -9589,7 +9589,7 @@
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20151387/ ")</f>
-        <v>https://stackoverflow.com/questions/20151387/ </v>
+        <v>https://stackoverflow.com/questions/20151387/</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>1</v>
@@ -9607,7 +9607,7 @@
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25958884/ ")</f>
-        <v>https://stackoverflow.com/questions/25958884/ </v>
+        <v>https://stackoverflow.com/questions/25958884/</v>
       </c>
       <c r="B687" s="0" t="n">
         <v>1</v>
@@ -9625,7 +9625,7 @@
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/32597435/ ")</f>
-        <v>https://stackoverflow.com/questions/32597435/ </v>
+        <v>https://stackoverflow.com/questions/32597435/</v>
       </c>
       <c r="B688" s="0" t="n">
         <v>1</v>
@@ -9643,7 +9643,7 @@
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/33822100/ ")</f>
-        <v>https://stackoverflow.com/questions/33822100/ </v>
+        <v>https://stackoverflow.com/questions/33822100/</v>
       </c>
       <c r="B689" s="0" t="n">
         <v>1</v>
@@ -9661,7 +9661,7 @@
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/38622191/ ")</f>
-        <v>https://stackoverflow.com/questions/38622191/ </v>
+        <v>https://stackoverflow.com/questions/38622191/</v>
       </c>
       <c r="B690" s="0" t="n">
         <v>1</v>
@@ -9690,7 +9690,7 @@
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2462421/ ")</f>
-        <v>https://stackoverflow.com/questions/2462421/ </v>
+        <v>https://stackoverflow.com/questions/2462421/</v>
       </c>
       <c r="B696" s="0" t="n">
         <v>2</v>
@@ -9708,7 +9708,7 @@
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2462433/ ")</f>
-        <v>https://stackoverflow.com/questions/2462433/ </v>
+        <v>https://stackoverflow.com/questions/2462433/</v>
       </c>
       <c r="B697" s="0" t="n">
         <v>5</v>
@@ -9726,7 +9726,7 @@
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2939223/ ")</f>
-        <v>https://stackoverflow.com/questions/2939223/ </v>
+        <v>https://stackoverflow.com/questions/2939223/</v>
       </c>
       <c r="B698" s="0" t="n">
         <v>5</v>
@@ -9747,7 +9747,7 @@
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9286956/ ")</f>
-        <v>https://stackoverflow.com/questions/9286956/ </v>
+        <v>https://stackoverflow.com/questions/9286956/</v>
       </c>
       <c r="B699" s="0" t="n">
         <v>5</v>
@@ -9765,7 +9765,7 @@
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9481939/ ")</f>
-        <v>https://stackoverflow.com/questions/9481939/ </v>
+        <v>https://stackoverflow.com/questions/9481939/</v>
       </c>
       <c r="B700" s="0" t="n">
         <v>5</v>
@@ -9783,7 +9783,7 @@
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9482369/ ")</f>
-        <v>https://stackoverflow.com/questions/9482369/ </v>
+        <v>https://stackoverflow.com/questions/9482369/</v>
       </c>
       <c r="B701" s="0" t="n">
         <v>3</v>
@@ -9801,7 +9801,7 @@
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14282952/ ")</f>
-        <v>https://stackoverflow.com/questions/14282952/ </v>
+        <v>https://stackoverflow.com/questions/14282952/</v>
       </c>
       <c r="B702" s="0" t="n">
         <v>1</v>
@@ -9819,7 +9819,7 @@
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15038434/ ")</f>
-        <v>https://stackoverflow.com/questions/15038434/ </v>
+        <v>https://stackoverflow.com/questions/15038434/</v>
       </c>
       <c r="B703" s="0" t="n">
         <v>5</v>
@@ -9837,7 +9837,7 @@
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15038679/ ")</f>
-        <v>https://stackoverflow.com/questions/15038679/ </v>
+        <v>https://stackoverflow.com/questions/15038679/</v>
       </c>
       <c r="B704" s="0" t="n">
         <v>5</v>
@@ -9855,7 +9855,7 @@
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17320221/ ")</f>
-        <v>https://stackoverflow.com/questions/17320221/ </v>
+        <v>https://stackoverflow.com/questions/17320221/</v>
       </c>
       <c r="B705" s="0" t="n">
         <v>1</v>
@@ -9884,7 +9884,7 @@
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/513871/ ")</f>
-        <v>https://stackoverflow.com/questions/513871/ </v>
+        <v>https://stackoverflow.com/questions/513871/</v>
       </c>
       <c r="B711" s="0" t="n">
         <v>1</v>
@@ -9902,7 +9902,7 @@
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/515000/ ")</f>
-        <v>https://stackoverflow.com/questions/515000/ </v>
+        <v>https://stackoverflow.com/questions/515000/</v>
       </c>
       <c r="B712" s="0" t="n">
         <v>1</v>
@@ -9920,7 +9920,7 @@
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1102916/ ")</f>
-        <v>https://stackoverflow.com/questions/1102916/ </v>
+        <v>https://stackoverflow.com/questions/1102916/</v>
       </c>
       <c r="B713" s="0" t="n">
         <v>1</v>
@@ -9938,7 +9938,7 @@
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1306751/ ")</f>
-        <v>https://stackoverflow.com/questions/1306751/ </v>
+        <v>https://stackoverflow.com/questions/1306751/</v>
       </c>
       <c r="B714" s="0" t="n">
         <v>1</v>
@@ -9956,7 +9956,7 @@
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2506109/ ")</f>
-        <v>https://stackoverflow.com/questions/2506109/ </v>
+        <v>https://stackoverflow.com/questions/2506109/</v>
       </c>
       <c r="B715" s="0" t="n">
         <v>4</v>
@@ -9974,7 +9974,7 @@
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2506146/ ")</f>
-        <v>https://stackoverflow.com/questions/2506146/ </v>
+        <v>https://stackoverflow.com/questions/2506146/</v>
       </c>
       <c r="B716" s="0" t="n">
         <v>4</v>
@@ -9992,7 +9992,7 @@
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5287561/ ")</f>
-        <v>https://stackoverflow.com/questions/5287561/ </v>
+        <v>https://stackoverflow.com/questions/5287561/</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>5</v>
@@ -10010,7 +10010,7 @@
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11871792/ ")</f>
-        <v>https://stackoverflow.com/questions/11871792/ </v>
+        <v>https://stackoverflow.com/questions/11871792/</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>5</v>
@@ -10028,7 +10028,7 @@
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13102066/ ")</f>
-        <v>https://stackoverflow.com/questions/13102066/ </v>
+        <v>https://stackoverflow.com/questions/13102066/</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>4</v>
@@ -10046,7 +10046,7 @@
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20154903/ ")</f>
-        <v>https://stackoverflow.com/questions/20154903/ </v>
+        <v>https://stackoverflow.com/questions/20154903/</v>
       </c>
       <c r="B720" s="0" t="n">
         <v>1</v>
@@ -10075,7 +10075,7 @@
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/513871/ ")</f>
-        <v>https://stackoverflow.com/questions/513871/ </v>
+        <v>https://stackoverflow.com/questions/513871/</v>
       </c>
       <c r="B726" s="0" t="n">
         <v>1</v>
@@ -10093,7 +10093,7 @@
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/515000/ ")</f>
-        <v>https://stackoverflow.com/questions/515000/ </v>
+        <v>https://stackoverflow.com/questions/515000/</v>
       </c>
       <c r="B727" s="0" t="n">
         <v>1</v>
@@ -10111,7 +10111,7 @@
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1532484/ ")</f>
-        <v>https://stackoverflow.com/questions/1532484/ </v>
+        <v>https://stackoverflow.com/questions/1532484/</v>
       </c>
       <c r="B728" s="0" t="n">
         <v>2</v>
@@ -10129,7 +10129,7 @@
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3801355/ ")</f>
-        <v>https://stackoverflow.com/questions/3801355/ </v>
+        <v>https://stackoverflow.com/questions/3801355/</v>
       </c>
       <c r="B729" s="0" t="n">
         <v>2</v>
@@ -10147,7 +10147,7 @@
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11227902/ ")</f>
-        <v>https://stackoverflow.com/questions/11227902/ </v>
+        <v>https://stackoverflow.com/questions/11227902/</v>
       </c>
       <c r="B730" s="0" t="n">
         <v>1</v>
@@ -10165,7 +10165,7 @@
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11237235/ ")</f>
-        <v>https://stackoverflow.com/questions/11237235/ </v>
+        <v>https://stackoverflow.com/questions/11237235/</v>
       </c>
       <c r="B731" s="0" t="n">
         <v>1</v>
@@ -10183,7 +10183,7 @@
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12853037/ ")</f>
-        <v>https://stackoverflow.com/questions/12853037/ </v>
+        <v>https://stackoverflow.com/questions/12853037/</v>
       </c>
       <c r="B732" s="0" t="n">
         <v>1</v>
@@ -10201,7 +10201,7 @@
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14889969/ ")</f>
-        <v>https://stackoverflow.com/questions/14889969/ </v>
+        <v>https://stackoverflow.com/questions/14889969/</v>
       </c>
       <c r="B733" s="0" t="n">
         <v>1</v>
@@ -10219,7 +10219,7 @@
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17828251/ ")</f>
-        <v>https://stackoverflow.com/questions/17828251/ </v>
+        <v>https://stackoverflow.com/questions/17828251/</v>
       </c>
       <c r="B734" s="0" t="n">
         <v>1</v>
@@ -10237,7 +10237,7 @@
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/33070112/ ")</f>
-        <v>https://stackoverflow.com/questions/33070112/ </v>
+        <v>https://stackoverflow.com/questions/33070112/</v>
       </c>
       <c r="B735" s="0" t="n">
         <v>1</v>
@@ -10266,7 +10266,7 @@
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/363691/ ")</f>
-        <v>https://stackoverflow.com/questions/363691/ </v>
+        <v>https://stackoverflow.com/questions/363691/</v>
       </c>
       <c r="B741" s="0" t="n">
         <v>4</v>
@@ -10284,7 +10284,7 @@
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/363693/ ")</f>
-        <v>https://stackoverflow.com/questions/363693/ </v>
+        <v>https://stackoverflow.com/questions/363693/</v>
       </c>
       <c r="B742" s="0" t="n">
         <v>4</v>
@@ -10302,7 +10302,7 @@
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/363713/ ")</f>
-        <v>https://stackoverflow.com/questions/363713/ </v>
+        <v>https://stackoverflow.com/questions/363713/</v>
       </c>
       <c r="B743" s="0" t="n">
         <v>5</v>
@@ -10320,7 +10320,7 @@
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/363732/ ")</f>
-        <v>https://stackoverflow.com/questions/363732/ </v>
+        <v>https://stackoverflow.com/questions/363732/</v>
       </c>
       <c r="B744" s="0" t="n">
         <v>4</v>
@@ -10338,7 +10338,7 @@
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2627801/ ")</f>
-        <v>https://stackoverflow.com/questions/2627801/ </v>
+        <v>https://stackoverflow.com/questions/2627801/</v>
       </c>
       <c r="B745" s="0" t="n">
         <v>3</v>
@@ -10359,7 +10359,7 @@
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5887736/ ")</f>
-        <v>https://stackoverflow.com/questions/5887736/ </v>
+        <v>https://stackoverflow.com/questions/5887736/</v>
       </c>
       <c r="B746" s="0" t="n">
         <v>5</v>
@@ -10377,7 +10377,7 @@
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5887745/ ")</f>
-        <v>https://stackoverflow.com/questions/5887745/ </v>
+        <v>https://stackoverflow.com/questions/5887745/</v>
       </c>
       <c r="B747" s="0" t="n">
         <v>5</v>
@@ -10395,7 +10395,7 @@
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13340579/ ")</f>
-        <v>https://stackoverflow.com/questions/13340579/ </v>
+        <v>https://stackoverflow.com/questions/13340579/</v>
       </c>
       <c r="B748" s="0" t="n">
         <v>4</v>
@@ -10413,7 +10413,7 @@
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20389923/ ")</f>
-        <v>https://stackoverflow.com/questions/20389923/ </v>
+        <v>https://stackoverflow.com/questions/20389923/</v>
       </c>
       <c r="B749" s="0" t="n">
         <v>5</v>
@@ -10431,7 +10431,7 @@
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/32808589/ ")</f>
-        <v>https://stackoverflow.com/questions/32808589/ </v>
+        <v>https://stackoverflow.com/questions/32808589/</v>
       </c>
       <c r="B750" s="0" t="n">
         <v>5</v>
@@ -10460,7 +10460,7 @@
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2710029/ ")</f>
-        <v>https://stackoverflow.com/questions/2710029/ </v>
+        <v>https://stackoverflow.com/questions/2710029/</v>
       </c>
       <c r="B756" s="0" t="n">
         <v>1</v>
@@ -10478,7 +10478,7 @@
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2710109/ ")</f>
-        <v>https://stackoverflow.com/questions/2710109/ </v>
+        <v>https://stackoverflow.com/questions/2710109/</v>
       </c>
       <c r="B757" s="0" t="n">
         <v>1</v>
@@ -10496,7 +10496,7 @@
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5328316/ ")</f>
-        <v>https://stackoverflow.com/questions/5328316/ </v>
+        <v>https://stackoverflow.com/questions/5328316/</v>
       </c>
       <c r="B758" s="0" t="n">
         <v>1</v>
@@ -10514,7 +10514,7 @@
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5328386/ ")</f>
-        <v>https://stackoverflow.com/questions/5328386/ </v>
+        <v>https://stackoverflow.com/questions/5328386/</v>
       </c>
       <c r="B759" s="0" t="n">
         <v>1</v>
@@ -10532,7 +10532,7 @@
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11410241/ ")</f>
-        <v>https://stackoverflow.com/questions/11410241/ </v>
+        <v>https://stackoverflow.com/questions/11410241/</v>
       </c>
       <c r="B760" s="0" t="n">
         <v>2</v>
@@ -10550,7 +10550,7 @@
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11542230/ ")</f>
-        <v>https://stackoverflow.com/questions/11542230/ </v>
+        <v>https://stackoverflow.com/questions/11542230/</v>
       </c>
       <c r="B761" s="0" t="n">
         <v>1</v>
@@ -10568,7 +10568,7 @@
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12055109/ ")</f>
-        <v>https://stackoverflow.com/questions/12055109/ </v>
+        <v>https://stackoverflow.com/questions/12055109/</v>
       </c>
       <c r="B762" s="0" t="n">
         <v>2</v>
@@ -10589,7 +10589,7 @@
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19919125/ ")</f>
-        <v>https://stackoverflow.com/questions/19919125/ </v>
+        <v>https://stackoverflow.com/questions/19919125/</v>
       </c>
       <c r="B763" s="0" t="n">
         <v>1</v>
@@ -10607,7 +10607,7 @@
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20039196/ ")</f>
-        <v>https://stackoverflow.com/questions/20039196/ </v>
+        <v>https://stackoverflow.com/questions/20039196/</v>
       </c>
       <c r="B764" s="0" t="n">
         <v>2</v>
@@ -10625,7 +10625,7 @@
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/39671515/ ")</f>
-        <v>https://stackoverflow.com/questions/39671515/ </v>
+        <v>https://stackoverflow.com/questions/39671515/</v>
       </c>
       <c r="B765" s="0" t="n">
         <v>1</v>
@@ -10654,7 +10654,7 @@
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4138856/ ")</f>
-        <v>https://stackoverflow.com/questions/4138856/ </v>
+        <v>https://stackoverflow.com/questions/4138856/</v>
       </c>
       <c r="B771" s="0" t="n">
         <v>3</v>
@@ -10675,7 +10675,7 @@
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4139065/ ")</f>
-        <v>https://stackoverflow.com/questions/4139065/ </v>
+        <v>https://stackoverflow.com/questions/4139065/</v>
       </c>
       <c r="B772" s="0" t="n">
         <v>3</v>
@@ -10696,7 +10696,7 @@
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4367356/ ")</f>
-        <v>https://stackoverflow.com/questions/4367356/ </v>
+        <v>https://stackoverflow.com/questions/4367356/</v>
       </c>
       <c r="B773" s="0" t="n">
         <v>5</v>
@@ -10714,7 +10714,7 @@
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6227459/ ")</f>
-        <v>https://stackoverflow.com/questions/6227459/ </v>
+        <v>https://stackoverflow.com/questions/6227459/</v>
       </c>
       <c r="B774" s="0" t="n">
         <v>3</v>
@@ -10735,7 +10735,7 @@
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8444800/ ")</f>
-        <v>https://stackoverflow.com/questions/8444800/ </v>
+        <v>https://stackoverflow.com/questions/8444800/</v>
       </c>
       <c r="B775" s="0" t="n">
         <v>3</v>
@@ -10756,7 +10756,7 @@
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8444890/ ")</f>
-        <v>https://stackoverflow.com/questions/8444890/ </v>
+        <v>https://stackoverflow.com/questions/8444890/</v>
       </c>
       <c r="B776" s="0" t="n">
         <v>3</v>
@@ -10777,7 +10777,7 @@
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/21768013/ ")</f>
-        <v>https://stackoverflow.com/questions/21768013/ </v>
+        <v>https://stackoverflow.com/questions/21768013/</v>
       </c>
       <c r="B777" s="0" t="n">
         <v>2</v>
@@ -10795,7 +10795,7 @@
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/35689090/ ")</f>
-        <v>https://stackoverflow.com/questions/35689090/ </v>
+        <v>https://stackoverflow.com/questions/35689090/</v>
       </c>
       <c r="B778" s="0" t="n">
         <v>3</v>
@@ -10816,7 +10816,7 @@
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/36094660/ ")</f>
-        <v>https://stackoverflow.com/questions/36094660/ </v>
+        <v>https://stackoverflow.com/questions/36094660/</v>
       </c>
       <c r="B779" s="0" t="n">
         <v>1</v>
@@ -10834,7 +10834,7 @@
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/42599689/ ")</f>
-        <v>https://stackoverflow.com/questions/42599689/ </v>
+        <v>https://stackoverflow.com/questions/42599689/</v>
       </c>
       <c r="B780" s="0" t="n">
         <v>1</v>
@@ -10863,7 +10863,7 @@
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8183498/ ")</f>
-        <v>https://stackoverflow.com/questions/8183498/ </v>
+        <v>https://stackoverflow.com/questions/8183498/</v>
       </c>
       <c r="B786" s="0" t="n">
         <v>5</v>
@@ -10881,7 +10881,7 @@
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8183502/ ")</f>
-        <v>https://stackoverflow.com/questions/8183502/ </v>
+        <v>https://stackoverflow.com/questions/8183502/</v>
       </c>
       <c r="B787" s="0" t="n">
         <v>1</v>
@@ -10899,7 +10899,7 @@
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8183556/ ")</f>
-        <v>https://stackoverflow.com/questions/8183556/ </v>
+        <v>https://stackoverflow.com/questions/8183556/</v>
       </c>
       <c r="B788" s="0" t="n">
         <v>5</v>
@@ -10917,7 +10917,7 @@
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8183568/ ")</f>
-        <v>https://stackoverflow.com/questions/8183568/ </v>
+        <v>https://stackoverflow.com/questions/8183568/</v>
       </c>
       <c r="B789" s="0" t="n">
         <v>2</v>
@@ -10935,7 +10935,7 @@
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14957745/ ")</f>
-        <v>https://stackoverflow.com/questions/14957745/ </v>
+        <v>https://stackoverflow.com/questions/14957745/</v>
       </c>
       <c r="B790" s="0" t="n">
         <v>4</v>
@@ -10956,7 +10956,7 @@
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14957782/ ")</f>
-        <v>https://stackoverflow.com/questions/14957782/ </v>
+        <v>https://stackoverflow.com/questions/14957782/</v>
       </c>
       <c r="B791" s="0" t="n">
         <v>3</v>
@@ -10977,7 +10977,7 @@
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14957897/ ")</f>
-        <v>https://stackoverflow.com/questions/14957897/ </v>
+        <v>https://stackoverflow.com/questions/14957897/</v>
       </c>
       <c r="B792" s="0" t="n">
         <v>4</v>
@@ -10998,7 +10998,7 @@
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17223780/ ")</f>
-        <v>https://stackoverflow.com/questions/17223780/ </v>
+        <v>https://stackoverflow.com/questions/17223780/</v>
       </c>
       <c r="B793" s="0" t="n">
         <v>2</v>
@@ -11016,7 +11016,7 @@
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17908295/ ")</f>
-        <v>https://stackoverflow.com/questions/17908295/ </v>
+        <v>https://stackoverflow.com/questions/17908295/</v>
       </c>
       <c r="B794" s="0" t="n">
         <v>1</v>
@@ -11034,7 +11034,7 @@
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/23501657/ ")</f>
-        <v>https://stackoverflow.com/questions/23501657/ </v>
+        <v>https://stackoverflow.com/questions/23501657/</v>
       </c>
       <c r="B795" s="0" t="n">
         <v>3</v>
@@ -11066,7 +11066,7 @@
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2843371/ ")</f>
-        <v>https://stackoverflow.com/questions/2843371/ </v>
+        <v>https://stackoverflow.com/questions/2843371/</v>
       </c>
       <c r="B801" s="0" t="n">
         <v>1</v>
@@ -11084,7 +11084,7 @@
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2843373/ ")</f>
-        <v>https://stackoverflow.com/questions/2843373/ </v>
+        <v>https://stackoverflow.com/questions/2843373/</v>
       </c>
       <c r="B802" s="0" t="n">
         <v>2</v>
@@ -11102,7 +11102,7 @@
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14098055/ ")</f>
-        <v>https://stackoverflow.com/questions/14098055/ </v>
+        <v>https://stackoverflow.com/questions/14098055/</v>
       </c>
       <c r="B803" s="0" t="n">
         <v>1</v>
@@ -11120,7 +11120,7 @@
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15899768/ ")</f>
-        <v>https://stackoverflow.com/questions/15899768/ </v>
+        <v>https://stackoverflow.com/questions/15899768/</v>
       </c>
       <c r="B804" s="0" t="n">
         <v>1</v>
@@ -11138,7 +11138,7 @@
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17846344/ ")</f>
-        <v>https://stackoverflow.com/questions/17846344/ </v>
+        <v>https://stackoverflow.com/questions/17846344/</v>
       </c>
       <c r="B805" s="0" t="n">
         <v>5</v>
@@ -11156,7 +11156,7 @@
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17847138/ ")</f>
-        <v>https://stackoverflow.com/questions/17847138/ </v>
+        <v>https://stackoverflow.com/questions/17847138/</v>
       </c>
       <c r="B806" s="0" t="n">
         <v>5</v>
@@ -11174,7 +11174,7 @@
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20860423/ ")</f>
-        <v>https://stackoverflow.com/questions/20860423/ </v>
+        <v>https://stackoverflow.com/questions/20860423/</v>
       </c>
       <c r="B807" s="0" t="n">
         <v>5</v>
@@ -11192,7 +11192,7 @@
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/24087722/ ")</f>
-        <v>https://stackoverflow.com/questions/24087722/ </v>
+        <v>https://stackoverflow.com/questions/24087722/</v>
       </c>
       <c r="B808" s="0" t="n">
         <v>5</v>
@@ -11210,7 +11210,7 @@
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/38712366/ ")</f>
-        <v>https://stackoverflow.com/questions/38712366/ </v>
+        <v>https://stackoverflow.com/questions/38712366/</v>
       </c>
       <c r="B809" s="0" t="n">
         <v>1</v>
@@ -11228,7 +11228,7 @@
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/45360648/ ")</f>
-        <v>https://stackoverflow.com/questions/45360648/ </v>
+        <v>https://stackoverflow.com/questions/45360648/</v>
       </c>
       <c r="B810" s="0" t="n">
         <v>1</v>
@@ -11257,7 +11257,7 @@
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15432089/ ")</f>
-        <v>https://stackoverflow.com/questions/15432089/ </v>
+        <v>https://stackoverflow.com/questions/15432089/</v>
       </c>
       <c r="B816" s="0" t="n">
         <v>1</v>
@@ -11275,7 +11275,7 @@
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15432351/ ")</f>
-        <v>https://stackoverflow.com/questions/15432351/ </v>
+        <v>https://stackoverflow.com/questions/15432351/</v>
       </c>
       <c r="B817" s="0" t="n">
         <v>4</v>
@@ -11296,7 +11296,7 @@
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18497480/ ")</f>
-        <v>https://stackoverflow.com/questions/18497480/ </v>
+        <v>https://stackoverflow.com/questions/18497480/</v>
       </c>
       <c r="B818" s="0" t="n">
         <v>1</v>
@@ -11314,7 +11314,7 @@
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18497546/ ")</f>
-        <v>https://stackoverflow.com/questions/18497546/ </v>
+        <v>https://stackoverflow.com/questions/18497546/</v>
       </c>
       <c r="B819" s="0" t="n">
         <v>3</v>
@@ -11332,7 +11332,7 @@
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18497763/ ")</f>
-        <v>https://stackoverflow.com/questions/18497763/ </v>
+        <v>https://stackoverflow.com/questions/18497763/</v>
       </c>
       <c r="B820" s="0" t="n">
         <v>1</v>
@@ -11350,7 +11350,7 @@
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20462778/ ")</f>
-        <v>https://stackoverflow.com/questions/20462778/ </v>
+        <v>https://stackoverflow.com/questions/20462778/</v>
       </c>
       <c r="B821" s="0" t="n">
         <v>1</v>
@@ -11368,7 +11368,7 @@
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/24625784/ ")</f>
-        <v>https://stackoverflow.com/questions/24625784/ </v>
+        <v>https://stackoverflow.com/questions/24625784/</v>
       </c>
       <c r="B822" s="0" t="n">
         <v>1</v>
@@ -11389,7 +11389,7 @@
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/25260838/ ")</f>
-        <v>https://stackoverflow.com/questions/25260838/ </v>
+        <v>https://stackoverflow.com/questions/25260838/</v>
       </c>
       <c r="B823" s="0" t="n">
         <v>3</v>
@@ -11407,7 +11407,7 @@
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29569830/ ")</f>
-        <v>https://stackoverflow.com/questions/29569830/ </v>
+        <v>https://stackoverflow.com/questions/29569830/</v>
       </c>
       <c r="B824" s="0" t="n">
         <v>2</v>
@@ -11436,7 +11436,7 @@
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4490774/ ")</f>
-        <v>https://stackoverflow.com/questions/4490774/ </v>
+        <v>https://stackoverflow.com/questions/4490774/</v>
       </c>
       <c r="B830" s="0" t="n">
         <v>2</v>
@@ -11454,7 +11454,7 @@
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4491062/ ")</f>
-        <v>https://stackoverflow.com/questions/4491062/ </v>
+        <v>https://stackoverflow.com/questions/4491062/</v>
       </c>
       <c r="B831" s="0" t="n">
         <v>3</v>
@@ -11475,7 +11475,7 @@
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4491223/ ")</f>
-        <v>https://stackoverflow.com/questions/4491223/ </v>
+        <v>https://stackoverflow.com/questions/4491223/</v>
       </c>
       <c r="B832" s="0" t="n">
         <v>4</v>
@@ -11496,7 +11496,7 @@
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4494641/ ")</f>
-        <v>https://stackoverflow.com/questions/4494641/ </v>
+        <v>https://stackoverflow.com/questions/4494641/</v>
       </c>
       <c r="B833" s="0" t="n">
         <v>2</v>
@@ -11514,7 +11514,7 @@
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12072910/ ")</f>
-        <v>https://stackoverflow.com/questions/12072910/ </v>
+        <v>https://stackoverflow.com/questions/12072910/</v>
       </c>
       <c r="B834" s="0" t="n">
         <v>3</v>
@@ -11535,7 +11535,7 @@
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12073530/ ")</f>
-        <v>https://stackoverflow.com/questions/12073530/ </v>
+        <v>https://stackoverflow.com/questions/12073530/</v>
       </c>
       <c r="B835" s="0" t="n">
         <v>3</v>
@@ -11556,7 +11556,7 @@
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12073815/ ")</f>
-        <v>https://stackoverflow.com/questions/12073815/ </v>
+        <v>https://stackoverflow.com/questions/12073815/</v>
       </c>
       <c r="B836" s="0" t="n">
         <v>2</v>
@@ -11574,7 +11574,7 @@
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14326884/ ")</f>
-        <v>https://stackoverflow.com/questions/14326884/ </v>
+        <v>https://stackoverflow.com/questions/14326884/</v>
       </c>
       <c r="B837" s="0" t="n">
         <v>1</v>
@@ -11592,7 +11592,7 @@
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14327683/ ")</f>
-        <v>https://stackoverflow.com/questions/14327683/ </v>
+        <v>https://stackoverflow.com/questions/14327683/</v>
       </c>
       <c r="B838" s="0" t="n">
         <v>3</v>
@@ -11613,7 +11613,7 @@
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/34551293/ ")</f>
-        <v>https://stackoverflow.com/questions/34551293/ </v>
+        <v>https://stackoverflow.com/questions/34551293/</v>
       </c>
       <c r="B839" s="0" t="n">
         <v>2</v>
@@ -11642,7 +11642,7 @@
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2245/ ")</f>
-        <v>https://stackoverflow.com/questions/2245/ </v>
+        <v>https://stackoverflow.com/questions/2245/</v>
       </c>
       <c r="B845" s="0" t="n">
         <v>2</v>
@@ -11660,7 +11660,7 @@
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2856518/ ")</f>
-        <v>https://stackoverflow.com/questions/2856518/ </v>
+        <v>https://stackoverflow.com/questions/2856518/</v>
       </c>
       <c r="B846" s="0" t="n">
         <v>1</v>
@@ -11678,7 +11678,7 @@
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7092289/ ")</f>
-        <v>https://stackoverflow.com/questions/7092289/ </v>
+        <v>https://stackoverflow.com/questions/7092289/</v>
       </c>
       <c r="B847" s="0" t="n">
         <v>1</v>
@@ -11696,7 +11696,7 @@
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7242249/ ")</f>
-        <v>https://stackoverflow.com/questions/7242249/ </v>
+        <v>https://stackoverflow.com/questions/7242249/</v>
       </c>
       <c r="B848" s="0" t="n">
         <v>1</v>
@@ -11714,7 +11714,7 @@
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7242345/ ")</f>
-        <v>https://stackoverflow.com/questions/7242345/ </v>
+        <v>https://stackoverflow.com/questions/7242345/</v>
       </c>
       <c r="B849" s="0" t="n">
         <v>1</v>
@@ -11732,7 +11732,7 @@
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7775705/ ")</f>
-        <v>https://stackoverflow.com/questions/7775705/ </v>
+        <v>https://stackoverflow.com/questions/7775705/</v>
       </c>
       <c r="B850" s="0" t="n">
         <v>1</v>
@@ -11750,7 +11750,7 @@
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7823104/ ")</f>
-        <v>https://stackoverflow.com/questions/7823104/ </v>
+        <v>https://stackoverflow.com/questions/7823104/</v>
       </c>
       <c r="B851" s="0" t="n">
         <v>1</v>
@@ -11768,7 +11768,7 @@
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10861974/ ")</f>
-        <v>https://stackoverflow.com/questions/10861974/ </v>
+        <v>https://stackoverflow.com/questions/10861974/</v>
       </c>
       <c r="B852" s="0" t="n">
         <v>1</v>
@@ -11786,7 +11786,7 @@
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/13160501/ ")</f>
-        <v>https://stackoverflow.com/questions/13160501/ </v>
+        <v>https://stackoverflow.com/questions/13160501/</v>
       </c>
       <c r="B853" s="0" t="n">
         <v>1</v>
@@ -11804,7 +11804,7 @@
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29235961/ ")</f>
-        <v>https://stackoverflow.com/questions/29235961/ </v>
+        <v>https://stackoverflow.com/questions/29235961/</v>
       </c>
       <c r="B854" s="0" t="n">
         <v>1</v>
@@ -11833,7 +11833,7 @@
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/145559/ ")</f>
-        <v>https://stackoverflow.com/questions/145559/ </v>
+        <v>https://stackoverflow.com/questions/145559/</v>
       </c>
       <c r="B860" s="0" t="n">
         <v>1</v>
@@ -11851,7 +11851,7 @@
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3072979/ ")</f>
-        <v>https://stackoverflow.com/questions/3072979/ </v>
+        <v>https://stackoverflow.com/questions/3072979/</v>
       </c>
       <c r="B861" s="0" t="n">
         <v>2</v>
@@ -11869,7 +11869,7 @@
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3953219/ ")</f>
-        <v>https://stackoverflow.com/questions/3953219/ </v>
+        <v>https://stackoverflow.com/questions/3953219/</v>
       </c>
       <c r="B862" s="0" t="n">
         <v>1</v>
@@ -11887,7 +11887,7 @@
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5443731/ ")</f>
-        <v>https://stackoverflow.com/questions/5443731/ </v>
+        <v>https://stackoverflow.com/questions/5443731/</v>
       </c>
       <c r="B863" s="0" t="n">
         <v>2</v>
@@ -11905,7 +11905,7 @@
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9433997/ ")</f>
-        <v>https://stackoverflow.com/questions/9433997/ </v>
+        <v>https://stackoverflow.com/questions/9433997/</v>
       </c>
       <c r="B864" s="0" t="n">
         <v>1</v>
@@ -11923,7 +11923,7 @@
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12765925/ ")</f>
-        <v>https://stackoverflow.com/questions/12765925/ </v>
+        <v>https://stackoverflow.com/questions/12765925/</v>
       </c>
       <c r="B865" s="0" t="n">
         <v>2</v>
@@ -11941,7 +11941,7 @@
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/17693413/ ")</f>
-        <v>https://stackoverflow.com/questions/17693413/ </v>
+        <v>https://stackoverflow.com/questions/17693413/</v>
       </c>
       <c r="B866" s="0" t="n">
         <v>2</v>
@@ -11959,7 +11959,7 @@
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/19021365/ ")</f>
-        <v>https://stackoverflow.com/questions/19021365/ </v>
+        <v>https://stackoverflow.com/questions/19021365/</v>
       </c>
       <c r="B867" s="0" t="n">
         <v>2</v>
@@ -11977,7 +11977,7 @@
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/30161053/ ")</f>
-        <v>https://stackoverflow.com/questions/30161053/ </v>
+        <v>https://stackoverflow.com/questions/30161053/</v>
       </c>
       <c r="B868" s="0" t="n">
         <v>2</v>
@@ -11995,7 +11995,7 @@
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/30553012/ ")</f>
-        <v>https://stackoverflow.com/questions/30553012/ </v>
+        <v>https://stackoverflow.com/questions/30553012/</v>
       </c>
       <c r="B869" s="0" t="n">
         <v>1</v>
@@ -12024,7 +12024,7 @@
     <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/45580/ ")</f>
-        <v>https://stackoverflow.com/questions/45580/ </v>
+        <v>https://stackoverflow.com/questions/45580/</v>
       </c>
       <c r="B875" s="0" t="n">
         <v>4</v>
@@ -12042,7 +12042,7 @@
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/513871/ ")</f>
-        <v>https://stackoverflow.com/questions/513871/ </v>
+        <v>https://stackoverflow.com/questions/513871/</v>
       </c>
       <c r="B876" s="0" t="n">
         <v>1</v>
@@ -12060,7 +12060,7 @@
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/515000/ ")</f>
-        <v>https://stackoverflow.com/questions/515000/ </v>
+        <v>https://stackoverflow.com/questions/515000/</v>
       </c>
       <c r="B877" s="0" t="n">
         <v>1</v>
@@ -12078,7 +12078,7 @@
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2271974/ ")</f>
-        <v>https://stackoverflow.com/questions/2271974/ </v>
+        <v>https://stackoverflow.com/questions/2271974/</v>
       </c>
       <c r="B878" s="0" t="n">
         <v>3</v>
@@ -12096,7 +12096,7 @@
     <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6608824/ ")</f>
-        <v>https://stackoverflow.com/questions/6608824/ </v>
+        <v>https://stackoverflow.com/questions/6608824/</v>
       </c>
       <c r="B879" s="0" t="n">
         <v>1</v>
@@ -12114,7 +12114,7 @@
     <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6608848/ ")</f>
-        <v>https://stackoverflow.com/questions/6608848/ </v>
+        <v>https://stackoverflow.com/questions/6608848/</v>
       </c>
       <c r="B880" s="0" t="n">
         <v>1</v>
@@ -12135,7 +12135,7 @@
     <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9278270/ ")</f>
-        <v>https://stackoverflow.com/questions/9278270/ </v>
+        <v>https://stackoverflow.com/questions/9278270/</v>
       </c>
       <c r="B881" s="0" t="n">
         <v>4</v>
@@ -12153,7 +12153,7 @@
     <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/9613393/ ")</f>
-        <v>https://stackoverflow.com/questions/9613393/ </v>
+        <v>https://stackoverflow.com/questions/9613393/</v>
       </c>
       <c r="B882" s="0" t="n">
         <v>1</v>
@@ -12171,7 +12171,7 @@
     <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/12488889/ ")</f>
-        <v>https://stackoverflow.com/questions/12488889/ </v>
+        <v>https://stackoverflow.com/questions/12488889/</v>
       </c>
       <c r="B883" s="0" t="n">
         <v>5</v>
@@ -12189,7 +12189,7 @@
     <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16487108/ ")</f>
-        <v>https://stackoverflow.com/questions/16487108/ </v>
+        <v>https://stackoverflow.com/questions/16487108/</v>
       </c>
       <c r="B884" s="0" t="n">
         <v>4</v>
@@ -12218,7 +12218,7 @@
     <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/354283/ ")</f>
-        <v>https://stackoverflow.com/questions/354283/ </v>
+        <v>https://stackoverflow.com/questions/354283/</v>
       </c>
       <c r="B890" s="0" t="n">
         <v>1</v>
@@ -12236,7 +12236,7 @@
     <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/359811/ ")</f>
-        <v>https://stackoverflow.com/questions/359811/ </v>
+        <v>https://stackoverflow.com/questions/359811/</v>
       </c>
       <c r="B891" s="0" t="n">
         <v>1</v>
@@ -12254,7 +12254,7 @@
     <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4671956/ ")</f>
-        <v>https://stackoverflow.com/questions/4671956/ </v>
+        <v>https://stackoverflow.com/questions/4671956/</v>
       </c>
       <c r="B892" s="0" t="n">
         <v>1</v>
@@ -12272,7 +12272,7 @@
     <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5572935/ ")</f>
-        <v>https://stackoverflow.com/questions/5572935/ </v>
+        <v>https://stackoverflow.com/questions/5572935/</v>
       </c>
       <c r="B893" s="0" t="n">
         <v>1</v>
@@ -12290,7 +12290,7 @@
     <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/11569461/ ")</f>
-        <v>https://stackoverflow.com/questions/11569461/ </v>
+        <v>https://stackoverflow.com/questions/11569461/</v>
       </c>
       <c r="B894" s="0" t="n">
         <v>2</v>
@@ -12308,7 +12308,7 @@
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18348622/ ")</f>
-        <v>https://stackoverflow.com/questions/18348622/ </v>
+        <v>https://stackoverflow.com/questions/18348622/</v>
       </c>
       <c r="B895" s="0" t="n">
         <v>2</v>
@@ -12326,7 +12326,7 @@
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20054785/ ")</f>
-        <v>https://stackoverflow.com/questions/20054785/ </v>
+        <v>https://stackoverflow.com/questions/20054785/</v>
       </c>
       <c r="B896" s="0" t="n">
         <v>1</v>
@@ -12344,7 +12344,7 @@
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20054857/ ")</f>
-        <v>https://stackoverflow.com/questions/20054857/ </v>
+        <v>https://stackoverflow.com/questions/20054857/</v>
       </c>
       <c r="B897" s="0" t="n">
         <v>1</v>
@@ -12362,7 +12362,7 @@
     <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20055012/ ")</f>
-        <v>https://stackoverflow.com/questions/20055012/ </v>
+        <v>https://stackoverflow.com/questions/20055012/</v>
       </c>
       <c r="B898" s="0" t="n">
         <v>1</v>
@@ -12380,7 +12380,7 @@
     <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/29849284/ ")</f>
-        <v>https://stackoverflow.com/questions/29849284/ </v>
+        <v>https://stackoverflow.com/questions/29849284/</v>
       </c>
       <c r="B899" s="0" t="n">
         <v>3</v>
@@ -12409,7 +12409,7 @@
     <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1652560/ ")</f>
-        <v>https://stackoverflow.com/questions/1652560/ </v>
+        <v>https://stackoverflow.com/questions/1652560/</v>
       </c>
       <c r="B905" s="0" t="n">
         <v>2</v>
@@ -12427,7 +12427,7 @@
     <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2593230/ ")</f>
-        <v>https://stackoverflow.com/questions/2593230/ </v>
+        <v>https://stackoverflow.com/questions/2593230/</v>
       </c>
       <c r="B906" s="0" t="n">
         <v>1</v>
@@ -12445,7 +12445,7 @@
     <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2593319/ ")</f>
-        <v>https://stackoverflow.com/questions/2593319/ </v>
+        <v>https://stackoverflow.com/questions/2593319/</v>
       </c>
       <c r="B907" s="0" t="n">
         <v>2</v>
@@ -12463,7 +12463,7 @@
     <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2810434/ ")</f>
-        <v>https://stackoverflow.com/questions/2810434/ </v>
+        <v>https://stackoverflow.com/questions/2810434/</v>
       </c>
       <c r="B908" s="0" t="n">
         <v>1</v>
@@ -12481,7 +12481,7 @@
     <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2817883/ ")</f>
-        <v>https://stackoverflow.com/questions/2817883/ </v>
+        <v>https://stackoverflow.com/questions/2817883/</v>
       </c>
       <c r="B909" s="0" t="n">
         <v>1</v>
@@ -12499,7 +12499,7 @@
     <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3487413/ ")</f>
-        <v>https://stackoverflow.com/questions/3487413/ </v>
+        <v>https://stackoverflow.com/questions/3487413/</v>
       </c>
       <c r="B910" s="0" t="n">
         <v>2</v>
@@ -12517,7 +12517,7 @@
     <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4737967/ ")</f>
-        <v>https://stackoverflow.com/questions/4737967/ </v>
+        <v>https://stackoverflow.com/questions/4737967/</v>
       </c>
       <c r="B911" s="0" t="n">
         <v>1</v>
@@ -12535,7 +12535,7 @@
     <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5330239/ ")</f>
-        <v>https://stackoverflow.com/questions/5330239/ </v>
+        <v>https://stackoverflow.com/questions/5330239/</v>
       </c>
       <c r="B912" s="0" t="n">
         <v>1</v>
@@ -12553,7 +12553,7 @@
     <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8240200/ ")</f>
-        <v>https://stackoverflow.com/questions/8240200/ </v>
+        <v>https://stackoverflow.com/questions/8240200/</v>
       </c>
       <c r="B913" s="0" t="n">
         <v>5</v>
@@ -12574,7 +12574,7 @@
     <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10786112/ ")</f>
-        <v>https://stackoverflow.com/questions/10786112/ </v>
+        <v>https://stackoverflow.com/questions/10786112/</v>
       </c>
       <c r="B914" s="0" t="n">
         <v>2</v>
@@ -12603,7 +12603,7 @@
     <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3573111/ ")</f>
-        <v>https://stackoverflow.com/questions/3573111/ </v>
+        <v>https://stackoverflow.com/questions/3573111/</v>
       </c>
       <c r="B920" s="0" t="n">
         <v>4</v>
@@ -12624,7 +12624,7 @@
     <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3573413/ ")</f>
-        <v>https://stackoverflow.com/questions/3573413/ </v>
+        <v>https://stackoverflow.com/questions/3573413/</v>
       </c>
       <c r="B921" s="0" t="n">
         <v>2</v>
@@ -12642,7 +12642,7 @@
     <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4455707/ ")</f>
-        <v>https://stackoverflow.com/questions/4455707/ </v>
+        <v>https://stackoverflow.com/questions/4455707/</v>
       </c>
       <c r="B922" s="0" t="n">
         <v>1</v>
@@ -12660,7 +12660,7 @@
     <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5230558/ ")</f>
-        <v>https://stackoverflow.com/questions/5230558/ </v>
+        <v>https://stackoverflow.com/questions/5230558/</v>
       </c>
       <c r="B923" s="0" t="n">
         <v>5</v>
@@ -12678,7 +12678,7 @@
     <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5406333/ ")</f>
-        <v>https://stackoverflow.com/questions/5406333/ </v>
+        <v>https://stackoverflow.com/questions/5406333/</v>
       </c>
       <c r="B924" s="0" t="n">
         <v>2</v>
@@ -12696,7 +12696,7 @@
     <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10443718/ ")</f>
-        <v>https://stackoverflow.com/questions/10443718/ </v>
+        <v>https://stackoverflow.com/questions/10443718/</v>
       </c>
       <c r="B925" s="0" t="n">
         <v>1</v>
@@ -12714,7 +12714,7 @@
     <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14977399/ ")</f>
-        <v>https://stackoverflow.com/questions/14977399/ </v>
+        <v>https://stackoverflow.com/questions/14977399/</v>
       </c>
       <c r="B926" s="0" t="n">
         <v>1</v>
@@ -12732,7 +12732,7 @@
     <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14987831/ ")</f>
-        <v>https://stackoverflow.com/questions/14987831/ </v>
+        <v>https://stackoverflow.com/questions/14987831/</v>
       </c>
       <c r="B927" s="0" t="n">
         <v>1</v>
@@ -12750,7 +12750,7 @@
     <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/16808416/ ")</f>
-        <v>https://stackoverflow.com/questions/16808416/ </v>
+        <v>https://stackoverflow.com/questions/16808416/</v>
       </c>
       <c r="B928" s="0" t="n">
         <v>5</v>
@@ -12771,7 +12771,7 @@
     <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18555770/ ")</f>
-        <v>https://stackoverflow.com/questions/18555770/ </v>
+        <v>https://stackoverflow.com/questions/18555770/</v>
       </c>
       <c r="B929" s="0" t="n">
         <v>5</v>
@@ -12800,7 +12800,7 @@
     <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/180872/ ")</f>
-        <v>https://stackoverflow.com/questions/180872/ </v>
+        <v>https://stackoverflow.com/questions/180872/</v>
       </c>
       <c r="B935" s="0" t="n">
         <v>2</v>
@@ -12818,7 +12818,7 @@
     <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2975821/ ")</f>
-        <v>https://stackoverflow.com/questions/2975821/ </v>
+        <v>https://stackoverflow.com/questions/2975821/</v>
       </c>
       <c r="B936" s="0" t="n">
         <v>3</v>
@@ -12839,7 +12839,7 @@
     <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3107059/ ")</f>
-        <v>https://stackoverflow.com/questions/3107059/ </v>
+        <v>https://stackoverflow.com/questions/3107059/</v>
       </c>
       <c r="B937" s="0" t="n">
         <v>2</v>
@@ -12857,7 +12857,7 @@
     <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/4828203/ ")</f>
-        <v>https://stackoverflow.com/questions/4828203/ </v>
+        <v>https://stackoverflow.com/questions/4828203/</v>
       </c>
       <c r="B938" s="0" t="n">
         <v>2</v>
@@ -12875,7 +12875,7 @@
     <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5891338/ ")</f>
-        <v>https://stackoverflow.com/questions/5891338/ </v>
+        <v>https://stackoverflow.com/questions/5891338/</v>
       </c>
       <c r="B939" s="0" t="n">
         <v>1</v>
@@ -12893,7 +12893,7 @@
     <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/8959971/ ")</f>
-        <v>https://stackoverflow.com/questions/8959971/ </v>
+        <v>https://stackoverflow.com/questions/8959971/</v>
       </c>
       <c r="B940" s="0" t="n">
         <v>4</v>
@@ -12911,7 +12911,7 @@
     <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/10898738/ ")</f>
-        <v>https://stackoverflow.com/questions/10898738/ </v>
+        <v>https://stackoverflow.com/questions/10898738/</v>
       </c>
       <c r="B941" s="0" t="n">
         <v>3</v>
@@ -12932,7 +12932,7 @@
     <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18196675/ ")</f>
-        <v>https://stackoverflow.com/questions/18196675/ </v>
+        <v>https://stackoverflow.com/questions/18196675/</v>
       </c>
       <c r="B942" s="0" t="n">
         <v>1</v>
@@ -12950,7 +12950,7 @@
     <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28829942/ ")</f>
-        <v>https://stackoverflow.com/questions/28829942/ </v>
+        <v>https://stackoverflow.com/questions/28829942/</v>
       </c>
       <c r="B943" s="0" t="n">
         <v>3</v>
@@ -12971,7 +12971,7 @@
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/45074699/ ")</f>
-        <v>https://stackoverflow.com/questions/45074699/ </v>
+        <v>https://stackoverflow.com/questions/45074699/</v>
       </c>
       <c r="B944" s="0" t="n">
         <v>2</v>
@@ -13000,7 +13000,7 @@
     <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1673950/ ")</f>
-        <v>https://stackoverflow.com/questions/1673950/ </v>
+        <v>https://stackoverflow.com/questions/1673950/</v>
       </c>
       <c r="B950" s="0" t="n">
         <v>1</v>
@@ -13018,7 +13018,7 @@
     <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2707195/ ")</f>
-        <v>https://stackoverflow.com/questions/2707195/ </v>
+        <v>https://stackoverflow.com/questions/2707195/</v>
       </c>
       <c r="B951" s="0" t="n">
         <v>1</v>
@@ -13036,7 +13036,7 @@
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3542297/ ")</f>
-        <v>https://stackoverflow.com/questions/3542297/ </v>
+        <v>https://stackoverflow.com/questions/3542297/</v>
       </c>
       <c r="B952" s="0" t="n">
         <v>2</v>
@@ -13054,7 +13054,7 @@
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5003701/ ")</f>
-        <v>https://stackoverflow.com/questions/5003701/ </v>
+        <v>https://stackoverflow.com/questions/5003701/</v>
       </c>
       <c r="B953" s="0" t="n">
         <v>4</v>
@@ -13072,7 +13072,7 @@
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5028915/ ")</f>
-        <v>https://stackoverflow.com/questions/5028915/ </v>
+        <v>https://stackoverflow.com/questions/5028915/</v>
       </c>
       <c r="B954" s="0" t="n">
         <v>4</v>
@@ -13090,7 +13090,7 @@
     <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5058732/ ")</f>
-        <v>https://stackoverflow.com/questions/5058732/ </v>
+        <v>https://stackoverflow.com/questions/5058732/</v>
       </c>
       <c r="B955" s="0" t="n">
         <v>4</v>
@@ -13108,7 +13108,7 @@
     <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/5096590/ ")</f>
-        <v>https://stackoverflow.com/questions/5096590/ </v>
+        <v>https://stackoverflow.com/questions/5096590/</v>
       </c>
       <c r="B956" s="0" t="n">
         <v>1</v>
@@ -13126,7 +13126,7 @@
     <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/7505933/ ")</f>
-        <v>https://stackoverflow.com/questions/7505933/ </v>
+        <v>https://stackoverflow.com/questions/7505933/</v>
       </c>
       <c r="B957" s="0" t="n">
         <v>1</v>
@@ -13144,7 +13144,7 @@
     <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14586132/ ")</f>
-        <v>https://stackoverflow.com/questions/14586132/ </v>
+        <v>https://stackoverflow.com/questions/14586132/</v>
       </c>
       <c r="B958" s="0" t="n">
         <v>3</v>
@@ -13165,7 +13165,7 @@
     <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20960081/ ")</f>
-        <v>https://stackoverflow.com/questions/20960081/ </v>
+        <v>https://stackoverflow.com/questions/20960081/</v>
       </c>
       <c r="B959" s="0" t="n">
         <v>4</v>
@@ -13197,7 +13197,7 @@
     <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1835742/ ")</f>
-        <v>https://stackoverflow.com/questions/1835742/ </v>
+        <v>https://stackoverflow.com/questions/1835742/</v>
       </c>
       <c r="B965" s="0" t="n">
         <v>4</v>
@@ -13215,7 +13215,7 @@
     <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2017776/ ")</f>
-        <v>https://stackoverflow.com/questions/2017776/ </v>
+        <v>https://stackoverflow.com/questions/2017776/</v>
       </c>
       <c r="B966" s="0" t="n">
         <v>5</v>
@@ -13233,7 +13233,7 @@
     <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2210951/ ")</f>
-        <v>https://stackoverflow.com/questions/2210951/ </v>
+        <v>https://stackoverflow.com/questions/2210951/</v>
       </c>
       <c r="B967" s="0" t="n">
         <v>5</v>
@@ -13251,7 +13251,7 @@
     <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3177761/ ")</f>
-        <v>https://stackoverflow.com/questions/3177761/ </v>
+        <v>https://stackoverflow.com/questions/3177761/</v>
       </c>
       <c r="B968" s="0" t="n">
         <v>2</v>
@@ -13269,7 +13269,7 @@
     <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/3883595/ ")</f>
-        <v>https://stackoverflow.com/questions/3883595/ </v>
+        <v>https://stackoverflow.com/questions/3883595/</v>
       </c>
       <c r="B969" s="0" t="n">
         <v>5</v>
@@ -13287,7 +13287,7 @@
     <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/6600763/ ")</f>
-        <v>https://stackoverflow.com/questions/6600763/ </v>
+        <v>https://stackoverflow.com/questions/6600763/</v>
       </c>
       <c r="B970" s="0" t="n">
         <v>1</v>
@@ -13305,7 +13305,7 @@
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/15839540/ ")</f>
-        <v>https://stackoverflow.com/questions/15839540/ </v>
+        <v>https://stackoverflow.com/questions/15839540/</v>
       </c>
       <c r="B971" s="0" t="n">
         <v>5</v>
@@ -13323,7 +13323,7 @@
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18826043/ ")</f>
-        <v>https://stackoverflow.com/questions/18826043/ </v>
+        <v>https://stackoverflow.com/questions/18826043/</v>
       </c>
       <c r="B972" s="0" t="n">
         <v>5</v>
@@ -13341,7 +13341,7 @@
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/18826066/ ")</f>
-        <v>https://stackoverflow.com/questions/18826066/ </v>
+        <v>https://stackoverflow.com/questions/18826066/</v>
       </c>
       <c r="B973" s="0" t="n">
         <v>4</v>
@@ -13359,7 +13359,7 @@
     <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/27165989/ ")</f>
-        <v>https://stackoverflow.com/questions/27165989/ </v>
+        <v>https://stackoverflow.com/questions/27165989/</v>
       </c>
       <c r="B974" s="0" t="n">
         <v>1</v>
@@ -13388,7 +13388,7 @@
     <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/1276086/ ")</f>
-        <v>https://stackoverflow.com/questions/1276086/ </v>
+        <v>https://stackoverflow.com/questions/1276086/</v>
       </c>
       <c r="B980" s="0" t="n">
         <v>3</v>
@@ -13409,7 +13409,7 @@
     <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2070046/ ")</f>
-        <v>https://stackoverflow.com/questions/2070046/ </v>
+        <v>https://stackoverflow.com/questions/2070046/</v>
       </c>
       <c r="B981" s="0" t="n">
         <v>4</v>
@@ -13427,7 +13427,7 @@
     <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/2073218/ ")</f>
-        <v>https://stackoverflow.com/questions/2073218/ </v>
+        <v>https://stackoverflow.com/questions/2073218/</v>
       </c>
       <c r="B982" s="0" t="n">
         <v>5</v>
@@ -13445,7 +13445,7 @@
     <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14039254/ ")</f>
-        <v>https://stackoverflow.com/questions/14039254/ </v>
+        <v>https://stackoverflow.com/questions/14039254/</v>
       </c>
       <c r="B983" s="0" t="n">
         <v>3</v>
@@ -13466,7 +13466,7 @@
     <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14039281/ ")</f>
-        <v>https://stackoverflow.com/questions/14039281/ </v>
+        <v>https://stackoverflow.com/questions/14039281/</v>
       </c>
       <c r="B984" s="0" t="n">
         <v>3</v>
@@ -13484,7 +13484,7 @@
     <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/14677792/ ")</f>
-        <v>https://stackoverflow.com/questions/14677792/ </v>
+        <v>https://stackoverflow.com/questions/14677792/</v>
       </c>
       <c r="B985" s="0" t="n">
         <v>2</v>
@@ -13505,7 +13505,7 @@
     <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/20662154/ ")</f>
-        <v>https://stackoverflow.com/questions/20662154/ </v>
+        <v>https://stackoverflow.com/questions/20662154/</v>
       </c>
       <c r="B986" s="0" t="n">
         <v>4</v>
@@ -13523,7 +13523,7 @@
     <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/27923668/ ")</f>
-        <v>https://stackoverflow.com/questions/27923668/ </v>
+        <v>https://stackoverflow.com/questions/27923668/</v>
       </c>
       <c r="B987" s="0" t="n">
         <v>3</v>
@@ -13544,7 +13544,7 @@
     <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28393315/ ")</f>
-        <v>https://stackoverflow.com/questions/28393315/ </v>
+        <v>https://stackoverflow.com/questions/28393315/</v>
       </c>
       <c r="B988" s="0" t="n">
         <v>3</v>
@@ -13565,7 +13565,7 @@
     <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="2" t="str">
         <f aca="false">HYPERLINK("https://stackoverflow.com/questions/28443011/ ")</f>
-        <v>https://stackoverflow.com/questions/28443011/ </v>
+        <v>https://stackoverflow.com/questions/28443011/</v>
       </c>
       <c r="B989" s="0" t="n">
         <v>3</v>

--- a/questionsLot1and2withoutWeightsAdjuster.xlsx
+++ b/questionsLot1and2withoutWeightsAdjuster.xlsx
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="A1:G990"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A961" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A988" activeCellId="0" sqref="A988"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A672" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A678" activeCellId="0" sqref="A678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
